--- a/data/baxter.metadata.xlsx
+++ b/data/baxter.metadata.xlsx
@@ -160,17 +160,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,9 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R491"/>
+  <dimension ref="A1:Q491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -8126,7 +8132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:17">
       <c r="A145">
         <v>2405680</v>
       </c>
@@ -8179,7 +8185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:17">
       <c r="A146">
         <v>2409670</v>
       </c>
@@ -8232,7 +8238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:17">
       <c r="A147">
         <v>2411660</v>
       </c>
@@ -8285,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:17">
       <c r="A148">
         <v>2413660</v>
       </c>
@@ -8338,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:17">
       <c r="A149">
         <v>2419660</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:17">
       <c r="A150">
         <v>2421651</v>
       </c>
@@ -8444,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:17">
       <c r="A151">
         <v>2427660</v>
       </c>
@@ -8487,14 +8493,17 @@
       <c r="N151">
         <v>66</v>
       </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
       <c r="Q151">
         <v>0</v>
       </c>
-      <c r="R151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18">
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152">
         <v>2431660</v>
       </c>
@@ -8537,17 +8546,17 @@
       <c r="N152">
         <v>72</v>
       </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
       <c r="P152">
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>0</v>
-      </c>
-      <c r="R152">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:17">
       <c r="A153">
         <v>2433650</v>
       </c>
@@ -8590,17 +8599,17 @@
       <c r="N153">
         <v>75</v>
       </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
       <c r="P153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q153">
-        <v>1</v>
-      </c>
-      <c r="R153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154">
         <v>2435680</v>
       </c>
@@ -8643,17 +8652,17 @@
       <c r="N154">
         <v>69</v>
       </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
       <c r="P154">
         <v>0</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
-      <c r="R154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18">
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155">
         <v>2437680</v>
       </c>
@@ -8696,17 +8705,17 @@
       <c r="N155">
         <v>77</v>
       </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
       <c r="P155">
         <v>0</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
-      <c r="R155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18">
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156">
         <v>2447651</v>
       </c>
@@ -8749,17 +8758,17 @@
       <c r="N156">
         <v>73</v>
       </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
       <c r="P156">
         <v>0</v>
       </c>
       <c r="Q156">
         <v>0</v>
       </c>
-      <c r="R156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18">
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157">
         <v>2449650</v>
       </c>
@@ -8802,17 +8811,17 @@
       <c r="N157">
         <v>90</v>
       </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
       <c r="P157">
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>1</v>
-      </c>
-      <c r="R157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158">
         <v>2453653</v>
       </c>
@@ -8855,17 +8864,17 @@
       <c r="N158">
         <v>128</v>
       </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
       <c r="P158">
         <v>0</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
-      <c r="R158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18">
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159">
         <v>2455650</v>
       </c>
@@ -8908,17 +8917,17 @@
       <c r="N159">
         <v>88</v>
       </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
       <c r="P159">
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:17">
       <c r="A160">
         <v>2457670</v>
       </c>
@@ -8961,17 +8970,17 @@
       <c r="N160">
         <v>79</v>
       </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
       <c r="P160">
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>0</v>
-      </c>
-      <c r="R160">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:17">
       <c r="A161">
         <v>2461651</v>
       </c>
@@ -9014,17 +9023,17 @@
       <c r="N161">
         <v>88</v>
       </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
       <c r="P161">
         <v>0</v>
       </c>
       <c r="Q161">
         <v>0</v>
       </c>
-      <c r="R161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18">
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162">
         <v>2463651</v>
       </c>
@@ -9067,17 +9076,17 @@
       <c r="N162">
         <v>90</v>
       </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
       <c r="P162">
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>0</v>
-      </c>
-      <c r="R162">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:17">
       <c r="A163">
         <v>2465680</v>
       </c>
@@ -9120,17 +9129,17 @@
       <c r="N163">
         <v>108</v>
       </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
       <c r="P163">
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>0</v>
-      </c>
-      <c r="R163">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:17">
       <c r="A164">
         <v>2471651</v>
       </c>
@@ -9173,17 +9182,17 @@
       <c r="N164">
         <v>58</v>
       </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
       <c r="P164">
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165">
         <v>2473660</v>
       </c>
@@ -9226,17 +9235,17 @@
       <c r="N165">
         <v>72</v>
       </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
       <c r="P165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q165">
         <v>0</v>
       </c>
-      <c r="R165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18">
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166">
         <v>2475653</v>
       </c>
@@ -9279,17 +9288,17 @@
       <c r="N166">
         <v>84</v>
       </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
       <c r="P166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q166">
         <v>0</v>
       </c>
-      <c r="R166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18">
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167">
         <v>2487651</v>
       </c>
@@ -9332,17 +9341,17 @@
       <c r="N167">
         <v>52</v>
       </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
       <c r="P167">
         <v>0</v>
       </c>
       <c r="Q167">
         <v>0</v>
       </c>
-      <c r="R167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18">
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168">
         <v>2491670</v>
       </c>
@@ -9385,17 +9394,17 @@
       <c r="N168">
         <v>67</v>
       </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
       <c r="P168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q168">
-        <v>1</v>
-      </c>
-      <c r="R168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169">
         <v>2493651</v>
       </c>
@@ -9438,17 +9447,17 @@
       <c r="N169">
         <v>62</v>
       </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
       <c r="P169">
         <v>0</v>
       </c>
       <c r="Q169">
         <v>0</v>
       </c>
-      <c r="R169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18">
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170">
         <v>2495653</v>
       </c>
@@ -9491,17 +9500,17 @@
       <c r="N170">
         <v>0</v>
       </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
       <c r="P170">
         <v>0</v>
       </c>
       <c r="Q170">
         <v>0</v>
       </c>
-      <c r="R170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18">
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171">
         <v>2499660</v>
       </c>
@@ -9544,17 +9553,17 @@
       <c r="N171">
         <v>80</v>
       </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
       <c r="P171">
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:17">
       <c r="A172">
         <v>2503650</v>
       </c>
@@ -9597,17 +9606,17 @@
       <c r="N172">
         <v>83</v>
       </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
       <c r="P172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q172">
         <v>0</v>
       </c>
-      <c r="R172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18">
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173">
         <v>2505651</v>
       </c>
@@ -9650,17 +9659,17 @@
       <c r="N173">
         <v>81</v>
       </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
       <c r="P173">
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>0</v>
-      </c>
-      <c r="R173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174">
         <v>2507651</v>
       </c>
@@ -9703,17 +9712,17 @@
       <c r="N174">
         <v>193</v>
       </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
       <c r="P174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q174">
-        <v>0</v>
-      </c>
-      <c r="R174">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:17">
       <c r="A175">
         <v>2511650</v>
       </c>
@@ -9756,17 +9765,17 @@
       <c r="N175">
         <v>63</v>
       </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
       <c r="P175">
         <v>0</v>
       </c>
       <c r="Q175">
         <v>0</v>
       </c>
-      <c r="R175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18">
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176">
         <v>2513680</v>
       </c>
@@ -9809,17 +9818,17 @@
       <c r="N176">
         <v>95</v>
       </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
       <c r="P176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:17">
       <c r="A177">
         <v>2517650</v>
       </c>
@@ -9862,17 +9871,17 @@
       <c r="N177">
         <v>93</v>
       </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
       <c r="P177">
         <v>0</v>
       </c>
       <c r="Q177">
         <v>0</v>
       </c>
-      <c r="R177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18">
+    </row>
+    <row r="178" spans="1:17">
       <c r="A178">
         <v>2519650</v>
       </c>
@@ -9915,17 +9924,17 @@
       <c r="N178">
         <v>74</v>
       </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
       <c r="P178">
         <v>0</v>
       </c>
       <c r="Q178">
         <v>0</v>
       </c>
-      <c r="R178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18">
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179">
         <v>2523653</v>
       </c>
@@ -9968,17 +9977,17 @@
       <c r="N179">
         <v>110</v>
       </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
       <c r="P179">
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>0</v>
-      </c>
-      <c r="R179">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:17">
       <c r="A180">
         <v>2525651</v>
       </c>
@@ -10021,17 +10030,17 @@
       <c r="N180">
         <v>68</v>
       </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
       <c r="P180">
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17">
       <c r="A181">
         <v>2527670</v>
       </c>
@@ -10074,17 +10083,17 @@
       <c r="N181">
         <v>98</v>
       </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
       <c r="P181">
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>0</v>
-      </c>
-      <c r="R181">
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:17">
       <c r="A182">
         <v>2529680</v>
       </c>
@@ -10127,17 +10136,17 @@
       <c r="N182">
         <v>77</v>
       </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
       <c r="P182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:17">
       <c r="A183">
         <v>2531651</v>
       </c>
@@ -10180,17 +10189,17 @@
       <c r="N183">
         <v>54</v>
       </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
       <c r="P183">
         <v>0</v>
       </c>
       <c r="Q183">
         <v>0</v>
       </c>
-      <c r="R183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18">
+    </row>
+    <row r="184" spans="1:17">
       <c r="A184">
         <v>2535652</v>
       </c>
@@ -10233,17 +10242,17 @@
       <c r="N184">
         <v>85</v>
       </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
       <c r="P184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:17">
       <c r="A185">
         <v>2537670</v>
       </c>
@@ -10286,17 +10295,17 @@
       <c r="N185">
         <v>79</v>
       </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
       <c r="P185">
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:17">
       <c r="A186">
         <v>2539660</v>
       </c>
@@ -10339,17 +10348,17 @@
       <c r="N186">
         <v>96</v>
       </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
       <c r="P186">
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>0</v>
-      </c>
-      <c r="R186">
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:17">
       <c r="A187">
         <v>2541670</v>
       </c>
@@ -10392,17 +10401,17 @@
       <c r="N187">
         <v>64</v>
       </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
       <c r="P187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q187">
         <v>1</v>
       </c>
-      <c r="R187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18">
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188">
         <v>2543653</v>
       </c>
@@ -10445,17 +10454,17 @@
       <c r="N188">
         <v>100</v>
       </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
       <c r="P188">
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>1</v>
-      </c>
-      <c r="R188">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:17">
       <c r="A189">
         <v>2545651</v>
       </c>
@@ -10498,17 +10507,17 @@
       <c r="N189">
         <v>77</v>
       </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
       <c r="P189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
-      <c r="R189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18">
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190">
         <v>2547670</v>
       </c>
@@ -10551,17 +10560,17 @@
       <c r="N190">
         <v>99</v>
       </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
       <c r="P190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:17">
       <c r="A191">
         <v>2551650</v>
       </c>
@@ -10604,17 +10613,17 @@
       <c r="N191">
         <v>86</v>
       </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
       <c r="P191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q191">
         <v>0</v>
       </c>
-      <c r="R191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18">
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192">
         <v>2555653</v>
       </c>
@@ -10657,17 +10666,17 @@
       <c r="N192">
         <v>69</v>
       </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
       <c r="P192">
         <v>0</v>
       </c>
       <c r="Q192">
         <v>0</v>
       </c>
-      <c r="R192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18">
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193">
         <v>2559650</v>
       </c>
@@ -10710,17 +10719,17 @@
       <c r="N193">
         <v>93</v>
       </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
       <c r="P193">
         <v>0</v>
       </c>
       <c r="Q193">
         <v>0</v>
       </c>
-      <c r="R193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18">
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194">
         <v>2565650</v>
       </c>
@@ -10763,17 +10772,17 @@
       <c r="N194">
         <v>68</v>
       </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
       <c r="P194">
         <v>0</v>
       </c>
       <c r="Q194">
         <v>0</v>
       </c>
-      <c r="R194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18">
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195">
         <v>2567653</v>
       </c>
@@ -10816,17 +10825,17 @@
       <c r="N195">
         <v>57</v>
       </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
       <c r="P195">
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>0</v>
-      </c>
-      <c r="R195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196">
         <v>2571650</v>
       </c>
@@ -10869,17 +10878,17 @@
       <c r="N196">
         <v>40</v>
       </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
       <c r="P196">
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>0</v>
-      </c>
-      <c r="R196">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:17">
       <c r="A197">
         <v>2575653</v>
       </c>
@@ -10922,17 +10931,17 @@
       <c r="N197">
         <v>90</v>
       </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
       <c r="P197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q197">
-        <v>0</v>
-      </c>
-      <c r="R197">
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:17">
       <c r="A198">
         <v>2579680</v>
       </c>
@@ -10975,17 +10984,17 @@
       <c r="N198">
         <v>170</v>
       </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
       <c r="P198">
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>0</v>
-      </c>
-      <c r="R198">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:17">
       <c r="A199">
         <v>2581651</v>
       </c>
@@ -11028,17 +11037,17 @@
       <c r="N199">
         <v>74</v>
       </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
       <c r="P199">
         <v>0</v>
       </c>
       <c r="Q199">
         <v>0</v>
       </c>
-      <c r="R199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18">
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200">
         <v>2583650</v>
       </c>
@@ -11081,17 +11090,17 @@
       <c r="N200">
         <v>59</v>
       </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
       <c r="P200">
         <v>0</v>
       </c>
       <c r="Q200">
         <v>0</v>
       </c>
-      <c r="R200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18">
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201">
         <v>2587650</v>
       </c>
@@ -11134,17 +11143,17 @@
       <c r="N201">
         <v>79</v>
       </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
       <c r="P201">
         <v>0</v>
       </c>
       <c r="Q201">
         <v>0</v>
       </c>
-      <c r="R201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18">
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202">
         <v>2589650</v>
       </c>
@@ -11187,17 +11196,17 @@
       <c r="N202">
         <v>81</v>
       </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
       <c r="P202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q202">
-        <v>1</v>
-      </c>
-      <c r="R202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203">
         <v>2597670</v>
       </c>
@@ -11240,17 +11249,17 @@
       <c r="N203">
         <v>70</v>
       </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
       <c r="P203">
         <v>0</v>
       </c>
       <c r="Q203">
         <v>0</v>
       </c>
-      <c r="R203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18">
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204">
         <v>2599650</v>
       </c>
@@ -11293,17 +11302,17 @@
       <c r="N204">
         <v>71</v>
       </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
       <c r="P204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q204">
         <v>0</v>
       </c>
-      <c r="R204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18">
+    </row>
+    <row r="205" spans="1:17">
       <c r="A205">
         <v>2603650</v>
       </c>
@@ -11346,17 +11355,17 @@
       <c r="N205">
         <v>73</v>
       </c>
+      <c r="O205">
+        <v>1</v>
+      </c>
       <c r="P205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q205">
         <v>0</v>
       </c>
-      <c r="R205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18">
+    </row>
+    <row r="206" spans="1:17">
       <c r="A206">
         <v>2611670</v>
       </c>
@@ -11390,17 +11399,17 @@
       <c r="L206">
         <v>0</v>
       </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
       <c r="P206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q206">
-        <v>1</v>
-      </c>
-      <c r="R206">
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:17">
       <c r="A207">
         <v>2613650</v>
       </c>
@@ -11443,17 +11452,17 @@
       <c r="N207">
         <v>130</v>
       </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
       <c r="P207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q207">
-        <v>1</v>
-      </c>
-      <c r="R207">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:17">
       <c r="A208">
         <v>2617653</v>
       </c>
@@ -11496,17 +11505,17 @@
       <c r="N208">
         <v>90</v>
       </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
       <c r="P208">
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>0</v>
-      </c>
-      <c r="R208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
       <c r="A209">
         <v>2619653</v>
       </c>
@@ -11549,17 +11558,17 @@
       <c r="N209">
         <v>86</v>
       </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
       <c r="P209">
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>0</v>
-      </c>
-      <c r="R209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17">
       <c r="A210">
         <v>2625653</v>
       </c>
@@ -11602,17 +11611,17 @@
       <c r="N210">
         <v>69</v>
       </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
       <c r="P210">
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>0</v>
-      </c>
-      <c r="R210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17">
       <c r="A211">
         <v>2629651</v>
       </c>
@@ -11655,17 +11664,17 @@
       <c r="N211">
         <v>93</v>
       </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
       <c r="P211">
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:17">
       <c r="A212">
         <v>2633670</v>
       </c>
@@ -11708,17 +11717,17 @@
       <c r="N212">
         <v>88</v>
       </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
       <c r="P212">
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:17">
       <c r="A213">
         <v>2637651</v>
       </c>
@@ -11761,17 +11770,17 @@
       <c r="N213">
         <v>81</v>
       </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
       <c r="P213">
         <v>0</v>
       </c>
       <c r="Q213">
         <v>0</v>
       </c>
-      <c r="R213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18">
+    </row>
+    <row r="214" spans="1:17">
       <c r="A214">
         <v>2639690</v>
       </c>
@@ -11814,17 +11823,17 @@
       <c r="N214">
         <v>104</v>
       </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
       <c r="P214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q214">
-        <v>1</v>
-      </c>
-      <c r="R214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17">
       <c r="A215">
         <v>2641650</v>
       </c>
@@ -11867,17 +11876,17 @@
       <c r="N215">
         <v>64</v>
       </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
       <c r="P215">
         <v>0</v>
       </c>
       <c r="Q215">
         <v>0</v>
       </c>
-      <c r="R215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18">
+    </row>
+    <row r="216" spans="1:17">
       <c r="A216">
         <v>2643651</v>
       </c>
@@ -11920,17 +11929,17 @@
       <c r="N216">
         <v>99</v>
       </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
       <c r="P216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q216">
-        <v>1</v>
-      </c>
-      <c r="R216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17">
       <c r="A217">
         <v>2647650</v>
       </c>
@@ -11973,17 +11982,17 @@
       <c r="N217">
         <v>69</v>
       </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
       <c r="P217">
         <v>0</v>
       </c>
       <c r="Q217">
         <v>0</v>
       </c>
-      <c r="R217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18">
+    </row>
+    <row r="218" spans="1:17">
       <c r="A218">
         <v>2657651</v>
       </c>
@@ -12026,17 +12035,17 @@
       <c r="N218">
         <v>92</v>
       </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
       <c r="P218">
         <v>0</v>
       </c>
       <c r="Q218">
         <v>0</v>
       </c>
-      <c r="R218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18">
+    </row>
+    <row r="219" spans="1:17">
       <c r="A219">
         <v>2665650</v>
       </c>
@@ -12079,17 +12088,17 @@
       <c r="N219">
         <v>102</v>
       </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
       <c r="P219">
         <v>0</v>
       </c>
       <c r="Q219">
         <v>0</v>
       </c>
-      <c r="R219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18">
+    </row>
+    <row r="220" spans="1:17">
       <c r="A220">
         <v>2667653</v>
       </c>
@@ -12132,17 +12141,17 @@
       <c r="N220">
         <v>93</v>
       </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
       <c r="P220">
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>0</v>
-      </c>
-      <c r="R220">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:17">
       <c r="A221">
         <v>2669660</v>
       </c>
@@ -12185,17 +12194,17 @@
       <c r="N221">
         <v>99</v>
       </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
       <c r="P221">
         <v>0</v>
       </c>
       <c r="Q221">
         <v>0</v>
       </c>
-      <c r="R221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18">
+    </row>
+    <row r="222" spans="1:17">
       <c r="A222">
         <v>2671660</v>
       </c>
@@ -12238,17 +12247,17 @@
       <c r="N222">
         <v>109</v>
       </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
       <c r="P222">
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:17">
       <c r="A223">
         <v>2675680</v>
       </c>
@@ -12291,17 +12300,17 @@
       <c r="N223">
         <v>97</v>
       </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
       <c r="P223">
         <v>0</v>
       </c>
       <c r="Q223">
         <v>0</v>
       </c>
-      <c r="R223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18">
+    </row>
+    <row r="224" spans="1:17">
       <c r="A224">
         <v>2677650</v>
       </c>
@@ -12344,17 +12353,17 @@
       <c r="N224">
         <v>67</v>
       </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
       <c r="P224">
         <v>0</v>
       </c>
       <c r="Q224">
         <v>0</v>
       </c>
-      <c r="R224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18">
+    </row>
+    <row r="225" spans="1:17">
       <c r="A225">
         <v>2679660</v>
       </c>
@@ -12397,17 +12406,17 @@
       <c r="N225">
         <v>90</v>
       </c>
+      <c r="O225">
+        <v>1</v>
+      </c>
       <c r="P225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q225">
         <v>0</v>
       </c>
-      <c r="R225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18">
+    </row>
+    <row r="226" spans="1:17">
       <c r="A226">
         <v>2681650</v>
       </c>
@@ -12450,17 +12459,17 @@
       <c r="N226">
         <v>51</v>
       </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
       <c r="P226">
         <v>0</v>
       </c>
       <c r="Q226">
         <v>0</v>
       </c>
-      <c r="R226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18">
+    </row>
+    <row r="227" spans="1:17">
       <c r="A227">
         <v>2695652</v>
       </c>
@@ -12503,17 +12512,17 @@
       <c r="N227">
         <v>99</v>
       </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
       <c r="P227">
         <v>0</v>
       </c>
       <c r="Q227">
         <v>0</v>
       </c>
-      <c r="R227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18">
+    </row>
+    <row r="228" spans="1:17">
       <c r="A228">
         <v>2703653</v>
       </c>
@@ -12556,17 +12565,17 @@
       <c r="N228">
         <v>65</v>
       </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
       <c r="P228">
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:17">
       <c r="A229">
         <v>2705653</v>
       </c>
@@ -12609,17 +12618,17 @@
       <c r="N229">
         <v>68</v>
       </c>
+      <c r="O229">
+        <v>1</v>
+      </c>
       <c r="P229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q229">
-        <v>0</v>
-      </c>
-      <c r="R229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17">
       <c r="A230">
         <v>2709650</v>
       </c>
@@ -12662,17 +12671,17 @@
       <c r="N230">
         <v>63</v>
       </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
       <c r="P230">
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
       <c r="A231">
         <v>2713651</v>
       </c>
@@ -12715,17 +12724,17 @@
       <c r="N231">
         <v>74</v>
       </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
       <c r="P231">
         <v>0</v>
       </c>
       <c r="Q231">
         <v>0</v>
       </c>
-      <c r="R231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18">
+    </row>
+    <row r="232" spans="1:17">
       <c r="A232">
         <v>2717652</v>
       </c>
@@ -12765,17 +12774,17 @@
       <c r="N232">
         <v>74</v>
       </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
       <c r="P232">
         <v>0</v>
       </c>
       <c r="Q232">
         <v>0</v>
       </c>
-      <c r="R232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18">
+    </row>
+    <row r="233" spans="1:17">
       <c r="A233">
         <v>2719650</v>
       </c>
@@ -12818,17 +12827,17 @@
       <c r="N233">
         <v>45</v>
       </c>
+      <c r="O233">
+        <v>1</v>
+      </c>
       <c r="P233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233">
         <v>0</v>
       </c>
-      <c r="R233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18">
+    </row>
+    <row r="234" spans="1:17">
       <c r="A234">
         <v>2725650</v>
       </c>
@@ -12865,17 +12874,17 @@
       <c r="N234">
         <v>71</v>
       </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
       <c r="P234">
         <v>0</v>
       </c>
       <c r="Q234">
         <v>0</v>
       </c>
-      <c r="R234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18">
+    </row>
+    <row r="235" spans="1:17">
       <c r="A235">
         <v>2727653</v>
       </c>
@@ -12918,17 +12927,17 @@
       <c r="N235">
         <v>109</v>
       </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
       <c r="P235">
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>0</v>
-      </c>
-      <c r="R235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
       <c r="A236">
         <v>2731670</v>
       </c>
@@ -12971,17 +12980,17 @@
       <c r="N236">
         <v>74</v>
       </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
       <c r="P236">
         <v>0</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
-      <c r="R236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18">
+    </row>
+    <row r="237" spans="1:17">
       <c r="A237">
         <v>2733650</v>
       </c>
@@ -13024,17 +13033,17 @@
       <c r="N237">
         <v>74</v>
       </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
       <c r="P237">
         <v>0</v>
       </c>
       <c r="Q237">
         <v>0</v>
       </c>
-      <c r="R237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18">
+    </row>
+    <row r="238" spans="1:17">
       <c r="A238">
         <v>2739651</v>
       </c>
@@ -13077,17 +13086,17 @@
       <c r="N238">
         <v>93</v>
       </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
       <c r="P238">
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>0</v>
-      </c>
-      <c r="R238">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:17">
       <c r="A239">
         <v>2743650</v>
       </c>
@@ -13130,17 +13139,17 @@
       <c r="N239">
         <v>65</v>
       </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
       <c r="P239">
         <v>0</v>
       </c>
       <c r="Q239">
         <v>0</v>
       </c>
-      <c r="R239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18">
+    </row>
+    <row r="240" spans="1:17">
       <c r="A240">
         <v>2751650</v>
       </c>
@@ -13183,17 +13192,17 @@
       <c r="N240">
         <v>89</v>
       </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
       <c r="P240">
         <v>0</v>
       </c>
       <c r="Q240">
         <v>0</v>
       </c>
-      <c r="R240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18">
+    </row>
+    <row r="241" spans="1:17">
       <c r="A241">
         <v>2757652</v>
       </c>
@@ -13236,17 +13245,17 @@
       <c r="N241">
         <v>79</v>
       </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
       <c r="P241">
         <v>0</v>
       </c>
       <c r="Q241">
         <v>0</v>
       </c>
-      <c r="R241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18">
+    </row>
+    <row r="242" spans="1:17">
       <c r="A242">
         <v>2767650</v>
       </c>
@@ -13289,17 +13298,17 @@
       <c r="N242">
         <v>78</v>
       </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
       <c r="P242">
         <v>0</v>
       </c>
       <c r="Q242">
         <v>0</v>
       </c>
-      <c r="R242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18">
+    </row>
+    <row r="243" spans="1:17">
       <c r="A243">
         <v>2769660</v>
       </c>
@@ -13342,17 +13351,17 @@
       <c r="N243">
         <v>99</v>
       </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
       <c r="P243">
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>0</v>
-      </c>
-      <c r="R243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
       <c r="A244">
         <v>2771670</v>
       </c>
@@ -13395,17 +13404,17 @@
       <c r="N244">
         <v>81</v>
       </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
       <c r="P244">
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>0</v>
-      </c>
-      <c r="R244">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:17">
       <c r="A245">
         <v>2773651</v>
       </c>
@@ -13448,17 +13457,17 @@
       <c r="N245">
         <v>112</v>
       </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
       <c r="P245">
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>0</v>
-      </c>
-      <c r="R245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
       <c r="A246">
         <v>2775653</v>
       </c>
@@ -13501,17 +13510,17 @@
       <c r="N246">
         <v>56</v>
       </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
       <c r="P246">
         <v>0</v>
       </c>
       <c r="Q246">
         <v>0</v>
       </c>
-      <c r="R246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18">
+    </row>
+    <row r="247" spans="1:17">
       <c r="A247">
         <v>2777670</v>
       </c>
@@ -13554,17 +13563,17 @@
       <c r="N247">
         <v>48</v>
       </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
       <c r="P247">
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:17">
       <c r="A248">
         <v>2779670</v>
       </c>
@@ -13607,17 +13616,17 @@
       <c r="N248">
         <v>46</v>
       </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
       <c r="P248">
         <v>0</v>
       </c>
       <c r="Q248">
         <v>0</v>
       </c>
-      <c r="R248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18">
+    </row>
+    <row r="249" spans="1:17">
       <c r="A249">
         <v>2785650</v>
       </c>
@@ -13660,17 +13669,17 @@
       <c r="N249">
         <v>83</v>
       </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
       <c r="P249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q249">
-        <v>1</v>
-      </c>
-      <c r="R249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
       <c r="A250">
         <v>2787660</v>
       </c>
@@ -13713,17 +13722,17 @@
       <c r="N250">
         <v>108</v>
       </c>
+      <c r="O250">
+        <v>1</v>
+      </c>
       <c r="P250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q250">
-        <v>0</v>
-      </c>
-      <c r="R250">
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:17">
       <c r="A251">
         <v>2795690</v>
       </c>
@@ -13766,17 +13775,17 @@
       <c r="N251">
         <v>74</v>
       </c>
+      <c r="O251">
+        <v>1</v>
+      </c>
       <c r="P251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q251">
         <v>0</v>
       </c>
-      <c r="R251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18">
+    </row>
+    <row r="252" spans="1:17">
       <c r="A252">
         <v>2799653</v>
       </c>
@@ -13819,17 +13828,17 @@
       <c r="N252">
         <v>86</v>
       </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
       <c r="P252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q252">
-        <v>1</v>
-      </c>
-      <c r="R252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
       <c r="A253">
         <v>2801653</v>
       </c>
@@ -13872,17 +13881,17 @@
       <c r="N253">
         <v>79</v>
       </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
       <c r="P253">
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>0</v>
-      </c>
-      <c r="R253">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:17">
       <c r="A254">
         <v>2803670</v>
       </c>
@@ -13925,17 +13934,17 @@
       <c r="N254">
         <v>88</v>
       </c>
+      <c r="O254">
+        <v>1</v>
+      </c>
       <c r="P254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254">
         <v>0</v>
       </c>
-      <c r="R254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18">
+    </row>
+    <row r="255" spans="1:17">
       <c r="A255">
         <v>2805660</v>
       </c>
@@ -13978,17 +13987,17 @@
       <c r="N255">
         <v>76</v>
       </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
       <c r="P255">
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>0</v>
-      </c>
-      <c r="R255">
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:17">
       <c r="A256">
         <v>2807650</v>
       </c>
@@ -14031,17 +14040,17 @@
       <c r="N256">
         <v>74</v>
       </c>
+      <c r="O256">
+        <v>1</v>
+      </c>
       <c r="P256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256">
         <v>0</v>
       </c>
-      <c r="R256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18">
+    </row>
+    <row r="257" spans="1:17">
       <c r="A257">
         <v>2811650</v>
       </c>
@@ -14084,17 +14093,17 @@
       <c r="N257">
         <v>99</v>
       </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
       <c r="P257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q257">
-        <v>1</v>
-      </c>
-      <c r="R257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
       <c r="A258">
         <v>2815650</v>
       </c>
@@ -14137,17 +14146,17 @@
       <c r="N258">
         <v>77</v>
       </c>
+      <c r="O258">
+        <v>1</v>
+      </c>
       <c r="P258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q258">
         <v>0</v>
       </c>
-      <c r="R258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18">
+    </row>
+    <row r="259" spans="1:17">
       <c r="A259">
         <v>2817670</v>
       </c>
@@ -14190,17 +14199,17 @@
       <c r="N259">
         <v>59</v>
       </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
       <c r="P259">
         <v>0</v>
       </c>
       <c r="Q259">
         <v>0</v>
       </c>
-      <c r="R259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18">
+    </row>
+    <row r="260" spans="1:17">
       <c r="A260">
         <v>2823650</v>
       </c>
@@ -14243,17 +14252,17 @@
       <c r="N260">
         <v>69</v>
       </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
       <c r="P260">
         <v>0</v>
       </c>
       <c r="Q260">
         <v>0</v>
       </c>
-      <c r="R260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18">
+    </row>
+    <row r="261" spans="1:17">
       <c r="A261">
         <v>2827650</v>
       </c>
@@ -14296,17 +14305,17 @@
       <c r="N261">
         <v>131</v>
       </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
       <c r="P261">
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>0</v>
-      </c>
-      <c r="R261">
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:17">
       <c r="A262">
         <v>2829660</v>
       </c>
@@ -14349,17 +14358,17 @@
       <c r="N262">
         <v>54</v>
       </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
       <c r="P262">
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>0</v>
-      </c>
-      <c r="R262">
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:17">
       <c r="A263">
         <v>2831680</v>
       </c>
@@ -14402,17 +14411,17 @@
       <c r="N263">
         <v>91</v>
       </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
       <c r="P263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q263">
-        <v>1</v>
-      </c>
-      <c r="R263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264">
         <v>2835650</v>
       </c>
@@ -14455,17 +14464,17 @@
       <c r="N264">
         <v>75</v>
       </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
       <c r="P264">
         <v>0</v>
       </c>
       <c r="Q264">
         <v>0</v>
       </c>
-      <c r="R264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18">
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265">
         <v>2837680</v>
       </c>
@@ -14508,17 +14517,17 @@
       <c r="N265">
         <v>72</v>
       </c>
+      <c r="O265">
+        <v>1</v>
+      </c>
       <c r="P265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q265">
-        <v>0</v>
-      </c>
-      <c r="R265">
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:17">
       <c r="A266">
         <v>2841680</v>
       </c>
@@ -14561,14 +14570,14 @@
       <c r="N266">
         <v>125</v>
       </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
       <c r="Q266">
-        <v>1</v>
-      </c>
-      <c r="R266">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:17">
       <c r="A267">
         <v>2843670</v>
       </c>
@@ -14611,17 +14620,17 @@
       <c r="N267">
         <v>77</v>
       </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
       <c r="P267">
         <v>0</v>
       </c>
       <c r="Q267">
         <v>0</v>
       </c>
-      <c r="R267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18">
+    </row>
+    <row r="268" spans="1:17">
       <c r="A268">
         <v>2849650</v>
       </c>
@@ -14664,17 +14673,17 @@
       <c r="N268">
         <v>77</v>
       </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
       <c r="P268">
         <v>0</v>
       </c>
       <c r="Q268">
         <v>0</v>
       </c>
-      <c r="R268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18">
+    </row>
+    <row r="269" spans="1:17">
       <c r="A269">
         <v>2853660</v>
       </c>
@@ -14717,17 +14726,17 @@
       <c r="N269">
         <v>63</v>
       </c>
+      <c r="O269">
+        <v>1</v>
+      </c>
       <c r="P269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q269">
         <v>0</v>
       </c>
-      <c r="R269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18">
+    </row>
+    <row r="270" spans="1:17">
       <c r="A270">
         <v>2855690</v>
       </c>
@@ -14767,17 +14776,17 @@
       <c r="N270">
         <v>82</v>
       </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
       <c r="P270">
         <v>0</v>
       </c>
       <c r="Q270">
         <v>0</v>
       </c>
-      <c r="R270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18">
+    </row>
+    <row r="271" spans="1:17">
       <c r="A271">
         <v>2857650</v>
       </c>
@@ -14820,17 +14829,17 @@
       <c r="N271">
         <v>68</v>
       </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
       <c r="P271">
         <v>0</v>
       </c>
       <c r="Q271">
         <v>0</v>
       </c>
-      <c r="R271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18">
+    </row>
+    <row r="272" spans="1:17">
       <c r="A272">
         <v>2859650</v>
       </c>
@@ -14873,17 +14882,17 @@
       <c r="N272">
         <v>81</v>
       </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
       <c r="P272">
         <v>0</v>
       </c>
       <c r="Q272">
         <v>0</v>
       </c>
-      <c r="R272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18">
+    </row>
+    <row r="273" spans="1:17">
       <c r="A273">
         <v>2861650</v>
       </c>
@@ -14926,17 +14935,17 @@
       <c r="N273">
         <v>89</v>
       </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
       <c r="P273">
         <v>0</v>
       </c>
       <c r="Q273">
         <v>0</v>
       </c>
-      <c r="R273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18">
+    </row>
+    <row r="274" spans="1:17">
       <c r="A274">
         <v>2863680</v>
       </c>
@@ -14979,17 +14988,17 @@
       <c r="N274">
         <v>118</v>
       </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
       <c r="P274">
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>0</v>
-      </c>
-      <c r="R274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17">
       <c r="A275">
         <v>2871650</v>
       </c>
@@ -15032,17 +15041,17 @@
       <c r="N275">
         <v>80</v>
       </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
       <c r="P275">
         <v>0</v>
       </c>
       <c r="Q275">
         <v>0</v>
       </c>
-      <c r="R275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18">
+    </row>
+    <row r="276" spans="1:17">
       <c r="A276">
         <v>2873653</v>
       </c>
@@ -15085,17 +15094,17 @@
       <c r="N276">
         <v>90</v>
       </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
       <c r="P276">
         <v>0</v>
       </c>
       <c r="Q276">
         <v>0</v>
       </c>
-      <c r="R276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18">
+    </row>
+    <row r="277" spans="1:17">
       <c r="A277">
         <v>2879660</v>
       </c>
@@ -15138,17 +15147,17 @@
       <c r="N277">
         <v>63</v>
       </c>
+      <c r="O277">
+        <v>1</v>
+      </c>
       <c r="P277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q277">
-        <v>0</v>
-      </c>
-      <c r="R277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
       <c r="A278">
         <v>2883650</v>
       </c>
@@ -15191,17 +15200,17 @@
       <c r="N278">
         <v>52</v>
       </c>
+      <c r="O278">
+        <v>0</v>
+      </c>
       <c r="P278">
         <v>0</v>
       </c>
       <c r="Q278">
         <v>0</v>
       </c>
-      <c r="R278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18">
+    </row>
+    <row r="279" spans="1:17">
       <c r="A279">
         <v>2887670</v>
       </c>
@@ -15244,17 +15253,17 @@
       <c r="N279">
         <v>97</v>
       </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
       <c r="P279">
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>0</v>
-      </c>
-      <c r="R279">
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:17">
       <c r="A280">
         <v>2889660</v>
       </c>
@@ -15297,17 +15306,17 @@
       <c r="N280">
         <v>88</v>
       </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
       <c r="P280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q280">
-        <v>1</v>
-      </c>
-      <c r="R280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17">
       <c r="A281">
         <v>2893660</v>
       </c>
@@ -15350,17 +15359,17 @@
       <c r="N281">
         <v>131</v>
       </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
       <c r="P281">
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>0</v>
-      </c>
-      <c r="R281">
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:17">
       <c r="A282">
         <v>2895650</v>
       </c>
@@ -15403,17 +15412,17 @@
       <c r="N282">
         <v>59</v>
       </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
       <c r="P282">
         <v>0</v>
       </c>
       <c r="Q282">
         <v>0</v>
       </c>
-      <c r="R282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18">
+    </row>
+    <row r="283" spans="1:17">
       <c r="A283">
         <v>2901651</v>
       </c>
@@ -15456,17 +15465,17 @@
       <c r="N283">
         <v>93</v>
       </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
       <c r="P283">
         <v>0</v>
       </c>
       <c r="Q283">
         <v>0</v>
       </c>
-      <c r="R283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18">
+    </row>
+    <row r="284" spans="1:17">
       <c r="A284">
         <v>2903653</v>
       </c>
@@ -15509,17 +15518,17 @@
       <c r="N284">
         <v>95</v>
       </c>
+      <c r="O284">
+        <v>1</v>
+      </c>
       <c r="P284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q284">
-        <v>0</v>
-      </c>
-      <c r="R284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17">
       <c r="A285">
         <v>2905650</v>
       </c>
@@ -15562,17 +15571,17 @@
       <c r="N285">
         <v>106</v>
       </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
       <c r="P285">
         <v>0</v>
       </c>
       <c r="Q285">
         <v>0</v>
       </c>
-      <c r="R285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18">
+    </row>
+    <row r="286" spans="1:17">
       <c r="A286">
         <v>2907653</v>
       </c>
@@ -15615,17 +15624,17 @@
       <c r="N286">
         <v>50</v>
       </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
       <c r="P286">
         <v>0</v>
       </c>
       <c r="Q286">
         <v>0</v>
       </c>
-      <c r="R286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18">
+    </row>
+    <row r="287" spans="1:17">
       <c r="A287">
         <v>2909653</v>
       </c>
@@ -15668,17 +15677,17 @@
       <c r="N287">
         <v>86</v>
       </c>
+      <c r="O287">
+        <v>1</v>
+      </c>
       <c r="P287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q287">
         <v>0</v>
       </c>
-      <c r="R287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18">
+    </row>
+    <row r="288" spans="1:17">
       <c r="A288">
         <v>2911680</v>
       </c>
@@ -15721,17 +15730,17 @@
       <c r="N288">
         <v>57</v>
       </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
       <c r="P288">
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>0</v>
-      </c>
-      <c r="R288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17">
       <c r="A289">
         <v>2913650</v>
       </c>
@@ -15774,17 +15783,17 @@
       <c r="N289">
         <v>61</v>
       </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
       <c r="P289">
         <v>0</v>
       </c>
       <c r="Q289">
         <v>0</v>
       </c>
-      <c r="R289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18">
+    </row>
+    <row r="290" spans="1:17">
       <c r="A290">
         <v>2915650</v>
       </c>
@@ -15827,17 +15836,17 @@
       <c r="N290">
         <v>45</v>
       </c>
+      <c r="O290">
+        <v>1</v>
+      </c>
       <c r="P290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q290">
         <v>0</v>
       </c>
-      <c r="R290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18">
+    </row>
+    <row r="291" spans="1:17">
       <c r="A291">
         <v>2917650</v>
       </c>
@@ -15880,17 +15889,17 @@
       <c r="N291">
         <v>73</v>
       </c>
+      <c r="O291">
+        <v>1</v>
+      </c>
       <c r="P291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q291">
         <v>0</v>
       </c>
-      <c r="R291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18">
+    </row>
+    <row r="292" spans="1:17">
       <c r="A292">
         <v>2921652</v>
       </c>
@@ -15933,17 +15942,17 @@
       <c r="N292">
         <v>87</v>
       </c>
+      <c r="O292">
+        <v>0</v>
+      </c>
       <c r="P292">
         <v>0</v>
       </c>
       <c r="Q292">
         <v>0</v>
       </c>
-      <c r="R292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18">
+    </row>
+    <row r="293" spans="1:17">
       <c r="A293">
         <v>2923650</v>
       </c>
@@ -15986,17 +15995,17 @@
       <c r="N293">
         <v>79</v>
       </c>
+      <c r="O293">
+        <v>0</v>
+      </c>
       <c r="P293">
         <v>0</v>
       </c>
       <c r="Q293">
         <v>0</v>
       </c>
-      <c r="R293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18">
+    </row>
+    <row r="294" spans="1:17">
       <c r="A294">
         <v>2929650</v>
       </c>
@@ -16039,17 +16048,17 @@
       <c r="N294">
         <v>98</v>
       </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
       <c r="P294">
         <v>0</v>
       </c>
       <c r="Q294">
         <v>0</v>
       </c>
-      <c r="R294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18">
+    </row>
+    <row r="295" spans="1:17">
       <c r="A295">
         <v>2931650</v>
       </c>
@@ -16092,17 +16101,17 @@
       <c r="N295">
         <v>72</v>
       </c>
+      <c r="O295">
+        <v>1</v>
+      </c>
       <c r="P295">
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>1</v>
-      </c>
-      <c r="R295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17">
       <c r="A296">
         <v>2933652</v>
       </c>
@@ -16145,17 +16154,17 @@
       <c r="N296">
         <v>81</v>
       </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
       <c r="P296">
         <v>0</v>
       </c>
       <c r="Q296">
         <v>0</v>
       </c>
-      <c r="R296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:18">
+    </row>
+    <row r="297" spans="1:17">
       <c r="A297">
         <v>2935650</v>
       </c>
@@ -16198,17 +16207,17 @@
       <c r="N297">
         <v>86</v>
       </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
       <c r="P297">
         <v>0</v>
       </c>
       <c r="Q297">
         <v>0</v>
       </c>
-      <c r="R297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:18">
+    </row>
+    <row r="298" spans="1:17">
       <c r="A298">
         <v>2937653</v>
       </c>
@@ -16251,17 +16260,17 @@
       <c r="N298">
         <v>86</v>
       </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
       <c r="P298">
         <v>0</v>
       </c>
       <c r="Q298">
         <v>0</v>
       </c>
-      <c r="R298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:18">
+    </row>
+    <row r="299" spans="1:17">
       <c r="A299">
         <v>2939650</v>
       </c>
@@ -16304,17 +16313,17 @@
       <c r="N299">
         <v>90</v>
       </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
       <c r="P299">
         <v>0</v>
       </c>
       <c r="Q299">
         <v>0</v>
       </c>
-      <c r="R299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:18">
+    </row>
+    <row r="300" spans="1:17">
       <c r="A300">
         <v>2943650</v>
       </c>
@@ -16357,17 +16366,17 @@
       <c r="N300">
         <v>68</v>
       </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
       <c r="P300">
         <v>0</v>
       </c>
       <c r="Q300">
         <v>0</v>
       </c>
-      <c r="R300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:18">
+    </row>
+    <row r="301" spans="1:17">
       <c r="A301">
         <v>2945660</v>
       </c>
@@ -16410,17 +16419,17 @@
       <c r="N301">
         <v>59</v>
       </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
       <c r="P301">
         <v>0</v>
       </c>
       <c r="Q301">
         <v>0</v>
       </c>
-      <c r="R301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:18">
+    </row>
+    <row r="302" spans="1:17">
       <c r="A302">
         <v>2955670</v>
       </c>
@@ -16463,17 +16472,17 @@
       <c r="N302">
         <v>81</v>
       </c>
+      <c r="O302">
+        <v>1</v>
+      </c>
       <c r="P302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q302">
-        <v>0</v>
-      </c>
-      <c r="R302">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17">
       <c r="A303">
         <v>2957680</v>
       </c>
@@ -16516,17 +16525,17 @@
       <c r="N303">
         <v>93</v>
       </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
       <c r="P303">
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>0</v>
-      </c>
-      <c r="R303">
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:17">
       <c r="A304">
         <v>2959660</v>
       </c>
@@ -16569,17 +16578,17 @@
       <c r="N304">
         <v>124</v>
       </c>
+      <c r="O304">
+        <v>1</v>
+      </c>
       <c r="P304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q304">
-        <v>0</v>
-      </c>
-      <c r="R304">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17">
       <c r="A305">
         <v>2961650</v>
       </c>
@@ -16622,17 +16631,17 @@
       <c r="N305">
         <v>95</v>
       </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
       <c r="P305">
         <v>0</v>
       </c>
       <c r="Q305">
         <v>0</v>
       </c>
-      <c r="R305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18">
+    </row>
+    <row r="306" spans="1:17">
       <c r="A306">
         <v>2963670</v>
       </c>
@@ -16675,17 +16684,17 @@
       <c r="N306">
         <v>97</v>
       </c>
+      <c r="O306">
+        <v>1</v>
+      </c>
       <c r="P306">
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>1</v>
-      </c>
-      <c r="R306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17">
       <c r="A307">
         <v>2965650</v>
       </c>
@@ -16728,17 +16737,17 @@
       <c r="N307">
         <v>81</v>
       </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
       <c r="P307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q307">
-        <v>1</v>
-      </c>
-      <c r="R307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17">
       <c r="A308">
         <v>2967680</v>
       </c>
@@ -16781,17 +16790,17 @@
       <c r="N308">
         <v>89</v>
       </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
       <c r="P308">
         <v>0</v>
       </c>
       <c r="Q308">
         <v>0</v>
       </c>
-      <c r="R308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18">
+    </row>
+    <row r="309" spans="1:17">
       <c r="A309">
         <v>2969650</v>
       </c>
@@ -16834,17 +16843,17 @@
       <c r="N309">
         <v>52</v>
       </c>
+      <c r="O309">
+        <v>0</v>
+      </c>
       <c r="P309">
         <v>0</v>
       </c>
       <c r="Q309">
         <v>0</v>
       </c>
-      <c r="R309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18">
+    </row>
+    <row r="310" spans="1:17">
       <c r="A310">
         <v>2971660</v>
       </c>
@@ -16887,17 +16896,17 @@
       <c r="N310">
         <v>56</v>
       </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
       <c r="P310">
         <v>0</v>
       </c>
       <c r="Q310">
         <v>0</v>
       </c>
-      <c r="R310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18">
+    </row>
+    <row r="311" spans="1:17">
       <c r="A311">
         <v>2981651</v>
       </c>
@@ -16940,17 +16949,17 @@
       <c r="N311">
         <v>70</v>
       </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
       <c r="P311">
         <v>0</v>
       </c>
       <c r="Q311">
         <v>0</v>
       </c>
-      <c r="R311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18">
+    </row>
+    <row r="312" spans="1:17">
       <c r="A312">
         <v>2987670</v>
       </c>
@@ -16993,17 +17002,17 @@
       <c r="N312">
         <v>72</v>
       </c>
+      <c r="O312">
+        <v>0</v>
+      </c>
       <c r="P312">
         <v>0</v>
       </c>
       <c r="Q312">
         <v>0</v>
       </c>
-      <c r="R312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18">
+    </row>
+    <row r="313" spans="1:17">
       <c r="A313">
         <v>2991650</v>
       </c>
@@ -17046,17 +17055,17 @@
       <c r="N313">
         <v>66</v>
       </c>
+      <c r="O313">
+        <v>0</v>
+      </c>
       <c r="P313">
         <v>0</v>
       </c>
       <c r="Q313">
         <v>0</v>
       </c>
-      <c r="R313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18">
+    </row>
+    <row r="314" spans="1:17">
       <c r="A314">
         <v>2993690</v>
       </c>
@@ -17099,17 +17108,17 @@
       <c r="N314">
         <v>49</v>
       </c>
+      <c r="O314">
+        <v>0</v>
+      </c>
       <c r="P314">
         <v>0</v>
       </c>
       <c r="Q314">
         <v>0</v>
       </c>
-      <c r="R314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18">
+    </row>
+    <row r="315" spans="1:17">
       <c r="A315">
         <v>2995660</v>
       </c>
@@ -17152,17 +17161,17 @@
       <c r="N315">
         <v>70</v>
       </c>
+      <c r="O315">
+        <v>1</v>
+      </c>
       <c r="P315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q315">
         <v>0</v>
       </c>
-      <c r="R315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18">
+    </row>
+    <row r="316" spans="1:17">
       <c r="A316">
         <v>2997651</v>
       </c>
@@ -17205,17 +17214,17 @@
       <c r="N316">
         <v>101</v>
       </c>
+      <c r="O316">
+        <v>1</v>
+      </c>
       <c r="P316">
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>1</v>
-      </c>
-      <c r="R316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17">
       <c r="A317">
         <v>2999650</v>
       </c>
@@ -17258,17 +17267,17 @@
       <c r="N317">
         <v>90</v>
       </c>
+      <c r="O317">
+        <v>1</v>
+      </c>
       <c r="P317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q317">
         <v>0</v>
       </c>
-      <c r="R317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18">
+    </row>
+    <row r="318" spans="1:17">
       <c r="A318">
         <v>3001670</v>
       </c>
@@ -17311,17 +17320,17 @@
       <c r="N318">
         <v>99</v>
       </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
       <c r="P318">
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>0</v>
-      </c>
-      <c r="R318">
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:18">
+    <row r="319" spans="1:17">
       <c r="A319">
         <v>3005653</v>
       </c>
@@ -17364,17 +17373,17 @@
       <c r="N319">
         <v>102</v>
       </c>
+      <c r="O319">
+        <v>0</v>
+      </c>
       <c r="P319">
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>0</v>
-      </c>
-      <c r="R319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17">
       <c r="A320">
         <v>3009670</v>
       </c>
@@ -17417,17 +17426,17 @@
       <c r="N320">
         <v>83</v>
       </c>
+      <c r="O320">
+        <v>1</v>
+      </c>
       <c r="P320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q320">
         <v>0</v>
       </c>
-      <c r="R320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:18">
+    </row>
+    <row r="321" spans="1:17">
       <c r="A321">
         <v>3011651</v>
       </c>
@@ -17470,17 +17479,17 @@
       <c r="N321">
         <v>68</v>
       </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
       <c r="P321">
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>0</v>
-      </c>
-      <c r="R321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17">
       <c r="A322">
         <v>3013653</v>
       </c>
@@ -17523,17 +17532,17 @@
       <c r="N322">
         <v>58</v>
       </c>
+      <c r="O322">
+        <v>1</v>
+      </c>
       <c r="P322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q322">
         <v>0</v>
       </c>
-      <c r="R322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:18">
+    </row>
+    <row r="323" spans="1:17">
       <c r="A323">
         <v>3015650</v>
       </c>
@@ -17576,17 +17585,17 @@
       <c r="N323">
         <v>61</v>
       </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
       <c r="P323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q323">
-        <v>1</v>
-      </c>
-      <c r="R323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17">
       <c r="A324">
         <v>3021690</v>
       </c>
@@ -17629,17 +17638,17 @@
       <c r="N324">
         <v>99</v>
       </c>
+      <c r="O324">
+        <v>1</v>
+      </c>
       <c r="P324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q324">
         <v>0</v>
       </c>
-      <c r="R324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:18">
+    </row>
+    <row r="325" spans="1:17">
       <c r="A325">
         <v>3023652</v>
       </c>
@@ -17682,17 +17691,17 @@
       <c r="N325">
         <v>60</v>
       </c>
+      <c r="O325">
+        <v>1</v>
+      </c>
       <c r="P325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q325">
         <v>0</v>
       </c>
-      <c r="R325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:18">
+    </row>
+    <row r="326" spans="1:17">
       <c r="A326">
         <v>3025650</v>
       </c>
@@ -17735,17 +17744,17 @@
       <c r="N326">
         <v>68</v>
       </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
       <c r="P326">
         <v>0</v>
       </c>
       <c r="Q326">
         <v>0</v>
       </c>
-      <c r="R326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:18">
+    </row>
+    <row r="327" spans="1:17">
       <c r="A327">
         <v>3031650</v>
       </c>
@@ -17788,17 +17797,17 @@
       <c r="N327">
         <v>77</v>
       </c>
+      <c r="O327">
+        <v>1</v>
+      </c>
       <c r="P327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q327">
         <v>0</v>
       </c>
-      <c r="R327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:18">
+    </row>
+    <row r="328" spans="1:17">
       <c r="A328">
         <v>3033660</v>
       </c>
@@ -17841,17 +17850,17 @@
       <c r="N328">
         <v>120</v>
       </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
       <c r="P328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q328">
-        <v>1</v>
-      </c>
-      <c r="R328">
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:18">
+    <row r="329" spans="1:17">
       <c r="A329">
         <v>3043652</v>
       </c>
@@ -17894,17 +17903,17 @@
       <c r="N329">
         <v>56</v>
       </c>
+      <c r="O329">
+        <v>0</v>
+      </c>
       <c r="P329">
         <v>0</v>
       </c>
       <c r="Q329">
         <v>0</v>
       </c>
-      <c r="R329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:18">
+    </row>
+    <row r="330" spans="1:17">
       <c r="A330">
         <v>3047652</v>
       </c>
@@ -17947,17 +17956,17 @@
       <c r="N330">
         <v>53</v>
       </c>
+      <c r="O330">
+        <v>1</v>
+      </c>
       <c r="P330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q330">
         <v>0</v>
       </c>
-      <c r="R330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:18">
+    </row>
+    <row r="331" spans="1:17">
       <c r="A331">
         <v>3049660</v>
       </c>
@@ -18000,17 +18009,17 @@
       <c r="N331">
         <v>89</v>
       </c>
+      <c r="O331">
+        <v>0</v>
+      </c>
       <c r="P331">
         <v>0</v>
       </c>
       <c r="Q331">
         <v>0</v>
       </c>
-      <c r="R331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:18">
+    </row>
+    <row r="332" spans="1:17">
       <c r="A332">
         <v>3051650</v>
       </c>
@@ -18053,17 +18062,17 @@
       <c r="N332">
         <v>74</v>
       </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
       <c r="P332">
         <v>0</v>
       </c>
       <c r="Q332">
         <v>0</v>
       </c>
-      <c r="R332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:18">
+    </row>
+    <row r="333" spans="1:17">
       <c r="A333">
         <v>3053650</v>
       </c>
@@ -18106,17 +18115,17 @@
       <c r="N333">
         <v>98</v>
       </c>
+      <c r="O333">
+        <v>0</v>
+      </c>
       <c r="P333">
         <v>0</v>
       </c>
       <c r="Q333">
         <v>0</v>
       </c>
-      <c r="R333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:18">
+    </row>
+    <row r="334" spans="1:17">
       <c r="A334">
         <v>3061660</v>
       </c>
@@ -18159,17 +18168,17 @@
       <c r="N334">
         <v>73</v>
       </c>
+      <c r="O334">
+        <v>0</v>
+      </c>
       <c r="P334">
         <v>0</v>
       </c>
       <c r="Q334">
         <v>0</v>
       </c>
-      <c r="R334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:18">
+    </row>
+    <row r="335" spans="1:17">
       <c r="A335">
         <v>3063660</v>
       </c>
@@ -18212,17 +18221,17 @@
       <c r="N335">
         <v>65</v>
       </c>
+      <c r="O335">
+        <v>0</v>
+      </c>
       <c r="P335">
         <v>0</v>
       </c>
       <c r="Q335">
         <v>0</v>
       </c>
-      <c r="R335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:18">
+    </row>
+    <row r="336" spans="1:17">
       <c r="A336">
         <v>3065652</v>
       </c>
@@ -18265,17 +18274,17 @@
       <c r="N336">
         <v>98</v>
       </c>
+      <c r="O336">
+        <v>1</v>
+      </c>
       <c r="P336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q336">
-        <v>0</v>
-      </c>
-      <c r="R336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17">
       <c r="A337">
         <v>3069660</v>
       </c>
@@ -18318,17 +18327,17 @@
       <c r="N337">
         <v>55</v>
       </c>
+      <c r="O337">
+        <v>1</v>
+      </c>
       <c r="P337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q337">
         <v>0</v>
       </c>
-      <c r="R337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:18">
+    </row>
+    <row r="338" spans="1:17">
       <c r="A338">
         <v>3073680</v>
       </c>
@@ -18371,17 +18380,17 @@
       <c r="N338">
         <v>81</v>
       </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
       <c r="P338">
         <v>0</v>
       </c>
       <c r="Q338">
         <v>0</v>
       </c>
-      <c r="R338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:18">
+    </row>
+    <row r="339" spans="1:17">
       <c r="A339">
         <v>3075653</v>
       </c>
@@ -18424,17 +18433,17 @@
       <c r="N339">
         <v>99</v>
       </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
       <c r="P339">
         <v>0</v>
       </c>
       <c r="Q339">
         <v>0</v>
       </c>
-      <c r="R339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:18">
+    </row>
+    <row r="340" spans="1:17">
       <c r="A340">
         <v>3081660</v>
       </c>
@@ -18477,17 +18486,17 @@
       <c r="N340">
         <v>102</v>
       </c>
+      <c r="O340">
+        <v>0</v>
+      </c>
       <c r="P340">
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>0</v>
-      </c>
-      <c r="R340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17">
       <c r="A341">
         <v>3085650</v>
       </c>
@@ -18530,17 +18539,17 @@
       <c r="N341">
         <v>68</v>
       </c>
+      <c r="O341">
+        <v>0</v>
+      </c>
       <c r="P341">
         <v>0</v>
       </c>
       <c r="Q341">
         <v>0</v>
       </c>
-      <c r="R341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:18">
+    </row>
+    <row r="342" spans="1:17">
       <c r="A342">
         <v>3087661</v>
       </c>
@@ -18583,17 +18592,17 @@
       <c r="N342">
         <v>70</v>
       </c>
+      <c r="O342">
+        <v>1</v>
+      </c>
       <c r="P342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q342">
         <v>0</v>
       </c>
-      <c r="R342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:18">
+    </row>
+    <row r="343" spans="1:17">
       <c r="A343">
         <v>3089650</v>
       </c>
@@ -18633,17 +18642,17 @@
       <c r="N343">
         <v>60</v>
       </c>
+      <c r="O343">
+        <v>1</v>
+      </c>
       <c r="P343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q343">
         <v>0</v>
       </c>
-      <c r="R343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:18">
+    </row>
+    <row r="344" spans="1:17">
       <c r="A344">
         <v>3091650</v>
       </c>
@@ -18683,17 +18692,17 @@
       <c r="N344">
         <v>94</v>
       </c>
+      <c r="O344">
+        <v>1</v>
+      </c>
       <c r="P344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q344">
         <v>0</v>
       </c>
-      <c r="R344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:18">
+    </row>
+    <row r="345" spans="1:17">
       <c r="A345">
         <v>3095670</v>
       </c>
@@ -18736,17 +18745,17 @@
       <c r="N345">
         <v>65</v>
       </c>
+      <c r="O345">
+        <v>1</v>
+      </c>
       <c r="P345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q345">
-        <v>0</v>
-      </c>
-      <c r="R345">
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:18">
+    <row r="346" spans="1:17">
       <c r="A346">
         <v>3099680</v>
       </c>
@@ -18789,17 +18798,17 @@
       <c r="N346">
         <v>59</v>
       </c>
+      <c r="O346">
+        <v>0</v>
+      </c>
       <c r="P346">
         <v>0</v>
       </c>
       <c r="Q346">
         <v>0</v>
       </c>
-      <c r="R346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:18">
+    </row>
+    <row r="347" spans="1:17">
       <c r="A347">
         <v>3101650</v>
       </c>
@@ -18842,17 +18851,17 @@
       <c r="N347">
         <v>68</v>
       </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
       <c r="P347">
         <v>0</v>
       </c>
       <c r="Q347">
         <v>0</v>
       </c>
-      <c r="R347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:18">
+    </row>
+    <row r="348" spans="1:17">
       <c r="A348">
         <v>3103670</v>
       </c>
@@ -18895,17 +18904,17 @@
       <c r="N348">
         <v>72</v>
       </c>
+      <c r="O348">
+        <v>0</v>
+      </c>
       <c r="P348">
         <v>0</v>
       </c>
       <c r="Q348">
         <v>0</v>
       </c>
-      <c r="R348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:18">
+    </row>
+    <row r="349" spans="1:17">
       <c r="A349">
         <v>3105660</v>
       </c>
@@ -18948,17 +18957,17 @@
       <c r="N349">
         <v>65</v>
       </c>
+      <c r="O349">
+        <v>0</v>
+      </c>
       <c r="P349">
         <v>0</v>
       </c>
       <c r="Q349">
         <v>0</v>
       </c>
-      <c r="R349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:18">
+    </row>
+    <row r="350" spans="1:17">
       <c r="A350">
         <v>3109650</v>
       </c>
@@ -19001,17 +19010,17 @@
       <c r="N350">
         <v>63</v>
       </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
       <c r="P350">
         <v>0</v>
       </c>
       <c r="Q350">
         <v>0</v>
       </c>
-      <c r="R350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:18">
+    </row>
+    <row r="351" spans="1:17">
       <c r="A351">
         <v>3111650</v>
       </c>
@@ -19054,17 +19063,17 @@
       <c r="N351">
         <v>87</v>
       </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
       <c r="P351">
         <v>0</v>
       </c>
       <c r="Q351">
         <v>0</v>
       </c>
-      <c r="R351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:18">
+    </row>
+    <row r="352" spans="1:17">
       <c r="A352">
         <v>3113650</v>
       </c>
@@ -19107,17 +19116,17 @@
       <c r="N352">
         <v>67</v>
       </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
       <c r="P352">
         <v>0</v>
       </c>
       <c r="Q352">
         <v>0</v>
       </c>
-      <c r="R352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:18">
+    </row>
+    <row r="353" spans="1:17">
       <c r="A353">
         <v>3117652</v>
       </c>
@@ -19160,17 +19169,17 @@
       <c r="N353">
         <v>86</v>
       </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
       <c r="P353">
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>0</v>
-      </c>
-      <c r="R353">
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:17">
       <c r="A354">
         <v>3119660</v>
       </c>
@@ -19213,17 +19222,17 @@
       <c r="N354">
         <v>109</v>
       </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
       <c r="P354">
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>0</v>
-      </c>
-      <c r="R354">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17">
       <c r="A355">
         <v>3123653</v>
       </c>
@@ -19266,17 +19275,17 @@
       <c r="N355">
         <v>73</v>
       </c>
+      <c r="O355">
+        <v>1</v>
+      </c>
       <c r="P355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q355">
         <v>0</v>
       </c>
-      <c r="R355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:18">
+    </row>
+    <row r="356" spans="1:17">
       <c r="A356">
         <v>3125660</v>
       </c>
@@ -19319,17 +19328,17 @@
       <c r="N356">
         <v>65</v>
       </c>
+      <c r="O356">
+        <v>0</v>
+      </c>
       <c r="P356">
         <v>0</v>
       </c>
       <c r="Q356">
         <v>0</v>
       </c>
-      <c r="R356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:18">
+    </row>
+    <row r="357" spans="1:17">
       <c r="A357">
         <v>3127690</v>
       </c>
@@ -19372,17 +19381,17 @@
       <c r="N357">
         <v>69</v>
       </c>
+      <c r="O357">
+        <v>1</v>
+      </c>
       <c r="P357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q357">
         <v>0</v>
       </c>
-      <c r="R357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:18">
+    </row>
+    <row r="358" spans="1:17">
       <c r="A358">
         <v>3129670</v>
       </c>
@@ -19425,17 +19434,17 @@
       <c r="N358">
         <v>61</v>
       </c>
+      <c r="O358">
+        <v>0</v>
+      </c>
       <c r="P358">
         <v>0</v>
       </c>
       <c r="Q358">
         <v>0</v>
       </c>
-      <c r="R358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:18">
+    </row>
+    <row r="359" spans="1:17">
       <c r="A359">
         <v>3131650</v>
       </c>
@@ -19478,17 +19487,17 @@
       <c r="N359">
         <v>59</v>
       </c>
+      <c r="O359">
+        <v>0</v>
+      </c>
       <c r="P359">
         <v>0</v>
       </c>
       <c r="Q359">
         <v>0</v>
       </c>
-      <c r="R359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:18">
+    </row>
+    <row r="360" spans="1:17">
       <c r="A360">
         <v>3133652</v>
       </c>
@@ -19531,17 +19540,17 @@
       <c r="N360">
         <v>86</v>
       </c>
+      <c r="O360">
+        <v>0</v>
+      </c>
       <c r="P360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q360">
-        <v>1</v>
-      </c>
-      <c r="R360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17">
       <c r="A361">
         <v>3135660</v>
       </c>
@@ -19584,17 +19593,17 @@
       <c r="N361">
         <v>59</v>
       </c>
+      <c r="O361">
+        <v>0</v>
+      </c>
       <c r="P361">
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>0</v>
-      </c>
-      <c r="R361">
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:18">
+    <row r="362" spans="1:17">
       <c r="A362">
         <v>3137650</v>
       </c>
@@ -19637,17 +19646,17 @@
       <c r="N362">
         <v>74</v>
       </c>
+      <c r="O362">
+        <v>1</v>
+      </c>
       <c r="P362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q362">
         <v>0</v>
       </c>
-      <c r="R362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:18">
+    </row>
+    <row r="363" spans="1:17">
       <c r="A363">
         <v>3139650</v>
       </c>
@@ -19690,17 +19699,17 @@
       <c r="N363">
         <v>48</v>
       </c>
+      <c r="O363">
+        <v>0</v>
+      </c>
       <c r="P363">
         <v>0</v>
       </c>
       <c r="Q363">
         <v>0</v>
       </c>
-      <c r="R363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:18">
+    </row>
+    <row r="364" spans="1:17">
       <c r="A364">
         <v>3141652</v>
       </c>
@@ -19743,17 +19752,17 @@
       <c r="N364">
         <v>83</v>
       </c>
+      <c r="O364">
+        <v>1</v>
+      </c>
       <c r="P364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q364">
         <v>0</v>
       </c>
-      <c r="R364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:18">
+    </row>
+    <row r="365" spans="1:17">
       <c r="A365">
         <v>3143650</v>
       </c>
@@ -19796,17 +19805,17 @@
       <c r="N365">
         <v>87</v>
       </c>
+      <c r="O365">
+        <v>0</v>
+      </c>
       <c r="P365">
         <v>0</v>
       </c>
       <c r="Q365">
         <v>0</v>
       </c>
-      <c r="R365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:18">
+    </row>
+    <row r="366" spans="1:17">
       <c r="A366">
         <v>3145650</v>
       </c>
@@ -19849,17 +19858,17 @@
       <c r="N366">
         <v>43</v>
       </c>
+      <c r="O366">
+        <v>1</v>
+      </c>
       <c r="P366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q366">
         <v>0</v>
       </c>
-      <c r="R366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:18">
+    </row>
+    <row r="367" spans="1:17">
       <c r="A367">
         <v>3149653</v>
       </c>
@@ -19902,17 +19911,17 @@
       <c r="N367">
         <v>88</v>
       </c>
+      <c r="O367">
+        <v>1</v>
+      </c>
       <c r="P367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q367">
         <v>0</v>
       </c>
-      <c r="R367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:18">
+    </row>
+    <row r="368" spans="1:17">
       <c r="A368">
         <v>3153670</v>
       </c>
@@ -19955,17 +19964,17 @@
       <c r="N368">
         <v>87</v>
       </c>
+      <c r="O368">
+        <v>0</v>
+      </c>
       <c r="P368">
         <v>0</v>
       </c>
       <c r="Q368">
         <v>0</v>
       </c>
-      <c r="R368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:18">
+    </row>
+    <row r="369" spans="1:17">
       <c r="A369">
         <v>3155690</v>
       </c>
@@ -20008,17 +20017,17 @@
       <c r="N369">
         <v>92</v>
       </c>
+      <c r="O369">
+        <v>0</v>
+      </c>
       <c r="P369">
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>0</v>
-      </c>
-      <c r="R369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:17">
       <c r="A370">
         <v>3159650</v>
       </c>
@@ -20061,17 +20070,17 @@
       <c r="N370">
         <v>62</v>
       </c>
+      <c r="O370">
+        <v>0</v>
+      </c>
       <c r="P370">
         <v>0</v>
       </c>
       <c r="Q370">
         <v>0</v>
       </c>
-      <c r="R370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:18">
+    </row>
+    <row r="371" spans="1:17">
       <c r="A371">
         <v>3161650</v>
       </c>
@@ -20114,17 +20123,17 @@
       <c r="N371">
         <v>70</v>
       </c>
+      <c r="O371">
+        <v>0</v>
+      </c>
       <c r="P371">
         <v>0</v>
       </c>
       <c r="Q371">
         <v>0</v>
       </c>
-      <c r="R371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:18">
+    </row>
+    <row r="372" spans="1:17">
       <c r="A372">
         <v>3163690</v>
       </c>
@@ -20167,17 +20176,17 @@
       <c r="N372">
         <v>47</v>
       </c>
+      <c r="O372">
+        <v>0</v>
+      </c>
       <c r="P372">
         <v>0</v>
       </c>
       <c r="Q372">
         <v>0</v>
       </c>
-      <c r="R372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:18">
+    </row>
+    <row r="373" spans="1:17">
       <c r="A373">
         <v>3169650</v>
       </c>
@@ -20220,17 +20229,17 @@
       <c r="N373">
         <v>88</v>
       </c>
+      <c r="O373">
+        <v>0</v>
+      </c>
       <c r="P373">
         <v>0</v>
       </c>
       <c r="Q373">
         <v>0</v>
       </c>
-      <c r="R373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:18">
+    </row>
+    <row r="374" spans="1:17">
       <c r="A374">
         <v>3173650</v>
       </c>
@@ -20273,17 +20282,17 @@
       <c r="N374">
         <v>66</v>
       </c>
+      <c r="O374">
+        <v>0</v>
+      </c>
       <c r="P374">
         <v>0</v>
       </c>
       <c r="Q374">
         <v>0</v>
       </c>
-      <c r="R374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:18">
+    </row>
+    <row r="375" spans="1:17">
       <c r="A375">
         <v>3181650</v>
       </c>
@@ -20326,17 +20335,17 @@
       <c r="N375">
         <v>72</v>
       </c>
+      <c r="O375">
+        <v>1</v>
+      </c>
       <c r="P375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q375">
         <v>0</v>
       </c>
-      <c r="R375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:18">
+    </row>
+    <row r="376" spans="1:17">
       <c r="A376">
         <v>3185650</v>
       </c>
@@ -20379,17 +20388,17 @@
       <c r="N376">
         <v>77</v>
       </c>
+      <c r="O376">
+        <v>1</v>
+      </c>
       <c r="P376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q376">
         <v>0</v>
       </c>
-      <c r="R376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:18">
+    </row>
+    <row r="377" spans="1:17">
       <c r="A377">
         <v>3187680</v>
       </c>
@@ -20432,17 +20441,17 @@
       <c r="N377">
         <v>50</v>
       </c>
+      <c r="O377">
+        <v>1</v>
+      </c>
       <c r="P377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q377">
         <v>0</v>
       </c>
-      <c r="R377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:18">
+    </row>
+    <row r="378" spans="1:17">
       <c r="A378">
         <v>3189650</v>
       </c>
@@ -20485,17 +20494,17 @@
       <c r="N378">
         <v>83</v>
       </c>
+      <c r="O378">
+        <v>0</v>
+      </c>
       <c r="P378">
         <v>0</v>
       </c>
       <c r="Q378">
         <v>0</v>
       </c>
-      <c r="R378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:18">
+    </row>
+    <row r="379" spans="1:17">
       <c r="A379">
         <v>3191650</v>
       </c>
@@ -20538,17 +20547,17 @@
       <c r="N379">
         <v>67</v>
       </c>
+      <c r="O379">
+        <v>0</v>
+      </c>
       <c r="P379">
         <v>0</v>
       </c>
       <c r="Q379">
         <v>0</v>
       </c>
-      <c r="R379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:18">
+    </row>
+    <row r="380" spans="1:17">
       <c r="A380">
         <v>3197670</v>
       </c>
@@ -20591,17 +20600,17 @@
       <c r="N380">
         <v>72</v>
       </c>
+      <c r="O380">
+        <v>0</v>
+      </c>
       <c r="P380">
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>0</v>
-      </c>
-      <c r="R380">
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:18">
+    <row r="381" spans="1:17">
       <c r="A381">
         <v>3203680</v>
       </c>
@@ -20644,17 +20653,17 @@
       <c r="N381">
         <v>102</v>
       </c>
+      <c r="O381">
+        <v>1</v>
+      </c>
       <c r="P381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q381">
-        <v>0</v>
-      </c>
-      <c r="R381">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:17">
       <c r="A382">
         <v>3209651</v>
       </c>
@@ -20697,17 +20706,17 @@
       <c r="N382">
         <v>93</v>
       </c>
+      <c r="O382">
+        <v>1</v>
+      </c>
       <c r="P382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q382">
         <v>0</v>
       </c>
-      <c r="R382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:18">
+    </row>
+    <row r="383" spans="1:17">
       <c r="A383">
         <v>3211670</v>
       </c>
@@ -20750,17 +20759,17 @@
       <c r="N383">
         <v>90</v>
       </c>
+      <c r="O383">
+        <v>0</v>
+      </c>
       <c r="P383">
         <v>0</v>
       </c>
       <c r="Q383">
         <v>0</v>
       </c>
-      <c r="R383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:18">
+    </row>
+    <row r="384" spans="1:17">
       <c r="A384">
         <v>3215650</v>
       </c>
@@ -20803,17 +20812,17 @@
       <c r="N384">
         <v>88</v>
       </c>
+      <c r="O384">
+        <v>1</v>
+      </c>
       <c r="P384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q384">
-        <v>0</v>
-      </c>
-      <c r="R384">
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:18">
+    <row r="385" spans="1:17">
       <c r="A385">
         <v>3217660</v>
       </c>
@@ -20856,17 +20865,17 @@
       <c r="N385">
         <v>63</v>
       </c>
+      <c r="O385">
+        <v>0</v>
+      </c>
       <c r="P385">
         <v>0</v>
       </c>
       <c r="Q385">
         <v>0</v>
       </c>
-      <c r="R385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:18">
+    </row>
+    <row r="386" spans="1:17">
       <c r="A386">
         <v>3219650</v>
       </c>
@@ -20909,17 +20918,17 @@
       <c r="N386">
         <v>65</v>
       </c>
+      <c r="O386">
+        <v>0</v>
+      </c>
       <c r="P386">
         <v>0</v>
       </c>
       <c r="Q386">
         <v>0</v>
       </c>
-      <c r="R386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:18">
+    </row>
+    <row r="387" spans="1:17">
       <c r="A387">
         <v>3221650</v>
       </c>
@@ -20962,17 +20971,17 @@
       <c r="N387">
         <v>59</v>
       </c>
+      <c r="O387">
+        <v>0</v>
+      </c>
       <c r="P387">
         <v>0</v>
       </c>
       <c r="Q387">
         <v>0</v>
       </c>
-      <c r="R387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:18">
+    </row>
+    <row r="388" spans="1:17">
       <c r="A388">
         <v>3223650</v>
       </c>
@@ -21015,17 +21024,17 @@
       <c r="N388">
         <v>63</v>
       </c>
+      <c r="O388">
+        <v>0</v>
+      </c>
       <c r="P388">
         <v>0</v>
       </c>
       <c r="Q388">
         <v>0</v>
       </c>
-      <c r="R388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:18">
+    </row>
+    <row r="389" spans="1:17">
       <c r="A389">
         <v>3225690</v>
       </c>
@@ -21068,17 +21077,17 @@
       <c r="N389">
         <v>79</v>
       </c>
+      <c r="O389">
+        <v>0</v>
+      </c>
       <c r="P389">
         <v>0</v>
       </c>
       <c r="Q389">
         <v>0</v>
       </c>
-      <c r="R389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:18">
+    </row>
+    <row r="390" spans="1:17">
       <c r="A390">
         <v>3229650</v>
       </c>
@@ -21121,17 +21130,17 @@
       <c r="N390">
         <v>83</v>
       </c>
+      <c r="O390">
+        <v>0</v>
+      </c>
       <c r="P390">
         <v>0</v>
       </c>
       <c r="Q390">
         <v>0</v>
       </c>
-      <c r="R390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:18">
+    </row>
+    <row r="391" spans="1:17">
       <c r="A391">
         <v>3231650</v>
       </c>
@@ -21174,17 +21183,17 @@
       <c r="N391">
         <v>88</v>
       </c>
+      <c r="O391">
+        <v>1</v>
+      </c>
       <c r="P391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q391">
         <v>0</v>
       </c>
-      <c r="R391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:18">
+    </row>
+    <row r="392" spans="1:17">
       <c r="A392">
         <v>3239650</v>
       </c>
@@ -21227,17 +21236,17 @@
       <c r="N392">
         <v>120</v>
       </c>
+      <c r="O392">
+        <v>0</v>
+      </c>
       <c r="P392">
         <v>0</v>
       </c>
       <c r="Q392">
         <v>0</v>
       </c>
-      <c r="R392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:18">
+    </row>
+    <row r="393" spans="1:17">
       <c r="A393">
         <v>3241660</v>
       </c>
@@ -21280,17 +21289,17 @@
       <c r="N393">
         <v>87</v>
       </c>
+      <c r="O393">
+        <v>0</v>
+      </c>
       <c r="P393">
         <v>0</v>
       </c>
       <c r="Q393">
         <v>0</v>
       </c>
-      <c r="R393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:18">
+    </row>
+    <row r="394" spans="1:17">
       <c r="A394">
         <v>3243680</v>
       </c>
@@ -21333,17 +21342,17 @@
       <c r="N394">
         <v>46</v>
       </c>
+      <c r="O394">
+        <v>0</v>
+      </c>
       <c r="P394">
         <v>0</v>
       </c>
       <c r="Q394">
         <v>0</v>
       </c>
-      <c r="R394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:18">
+    </row>
+    <row r="395" spans="1:17">
       <c r="A395">
         <v>3245680</v>
       </c>
@@ -21386,17 +21395,17 @@
       <c r="N395">
         <v>59</v>
       </c>
+      <c r="O395">
+        <v>0</v>
+      </c>
       <c r="P395">
         <v>0</v>
       </c>
       <c r="Q395">
         <v>0</v>
       </c>
-      <c r="R395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:18">
+    </row>
+    <row r="396" spans="1:17">
       <c r="A396">
         <v>3247652</v>
       </c>
@@ -21439,17 +21448,17 @@
       <c r="N396">
         <v>56</v>
       </c>
+      <c r="O396">
+        <v>0</v>
+      </c>
       <c r="P396">
         <v>0</v>
       </c>
       <c r="Q396">
         <v>0</v>
       </c>
-      <c r="R396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:18">
+    </row>
+    <row r="397" spans="1:17">
       <c r="A397">
         <v>3249650</v>
       </c>
@@ -21492,17 +21501,17 @@
       <c r="N397">
         <v>79</v>
       </c>
+      <c r="O397">
+        <v>1</v>
+      </c>
       <c r="P397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q397">
         <v>0</v>
       </c>
-      <c r="R397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:18">
+    </row>
+    <row r="398" spans="1:17">
       <c r="A398">
         <v>3251653</v>
       </c>
@@ -21545,17 +21554,17 @@
       <c r="N398">
         <v>55</v>
       </c>
+      <c r="O398">
+        <v>1</v>
+      </c>
       <c r="P398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q398">
         <v>0</v>
       </c>
-      <c r="R398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:18">
+    </row>
+    <row r="399" spans="1:17">
       <c r="A399">
         <v>3257660</v>
       </c>
@@ -21598,17 +21607,17 @@
       <c r="N399">
         <v>90</v>
       </c>
+      <c r="O399">
+        <v>0</v>
+      </c>
       <c r="P399">
         <v>0</v>
       </c>
       <c r="Q399">
         <v>0</v>
       </c>
-      <c r="R399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:18">
+    </row>
+    <row r="400" spans="1:17">
       <c r="A400">
         <v>3263650</v>
       </c>
@@ -21651,17 +21660,17 @@
       <c r="N400">
         <v>99</v>
       </c>
+      <c r="O400">
+        <v>1</v>
+      </c>
       <c r="P400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q400">
-        <v>0</v>
-      </c>
-      <c r="R400">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17">
       <c r="A401">
         <v>3267660</v>
       </c>
@@ -21704,17 +21713,17 @@
       <c r="N401">
         <v>68</v>
       </c>
+      <c r="O401">
+        <v>0</v>
+      </c>
       <c r="P401">
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>0</v>
-      </c>
-      <c r="R401">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17">
       <c r="A402">
         <v>3271650</v>
       </c>
@@ -21757,17 +21766,17 @@
       <c r="N402">
         <v>83</v>
       </c>
+      <c r="O402">
+        <v>0</v>
+      </c>
       <c r="P402">
         <v>0</v>
       </c>
       <c r="Q402">
         <v>0</v>
       </c>
-      <c r="R402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:18">
+    </row>
+    <row r="403" spans="1:17">
       <c r="A403">
         <v>3273652</v>
       </c>
@@ -21810,17 +21819,17 @@
       <c r="N403">
         <v>79</v>
       </c>
+      <c r="O403">
+        <v>0</v>
+      </c>
       <c r="P403">
         <v>0</v>
       </c>
       <c r="Q403">
         <v>0</v>
       </c>
-      <c r="R403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:18">
+    </row>
+    <row r="404" spans="1:17">
       <c r="A404">
         <v>3277650</v>
       </c>
@@ -21863,17 +21872,17 @@
       <c r="N404">
         <v>65</v>
       </c>
+      <c r="O404">
+        <v>0</v>
+      </c>
       <c r="P404">
         <v>0</v>
       </c>
       <c r="Q404">
         <v>0</v>
       </c>
-      <c r="R404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:18">
+    </row>
+    <row r="405" spans="1:17">
       <c r="A405">
         <v>3279650</v>
       </c>
@@ -21916,17 +21925,17 @@
       <c r="N405">
         <v>79</v>
       </c>
+      <c r="O405">
+        <v>0</v>
+      </c>
       <c r="P405">
         <v>0</v>
       </c>
       <c r="Q405">
         <v>0</v>
       </c>
-      <c r="R405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:18">
+    </row>
+    <row r="406" spans="1:17">
       <c r="A406">
         <v>3281670</v>
       </c>
@@ -21969,17 +21978,17 @@
       <c r="N406">
         <v>118</v>
       </c>
+      <c r="O406">
+        <v>1</v>
+      </c>
       <c r="P406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q406">
-        <v>0</v>
-      </c>
-      <c r="R406">
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:18">
+    <row r="407" spans="1:17">
       <c r="A407">
         <v>3283690</v>
       </c>
@@ -22022,17 +22031,17 @@
       <c r="N407">
         <v>48</v>
       </c>
+      <c r="O407">
+        <v>0</v>
+      </c>
       <c r="P407">
         <v>0</v>
       </c>
       <c r="Q407">
         <v>0</v>
       </c>
-      <c r="R407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:18">
+    </row>
+    <row r="408" spans="1:17">
       <c r="A408">
         <v>3289650</v>
       </c>
@@ -22075,17 +22084,17 @@
       <c r="N408">
         <v>59</v>
       </c>
+      <c r="O408">
+        <v>0</v>
+      </c>
       <c r="P408">
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>0</v>
-      </c>
-      <c r="R408">
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:18">
+    <row r="409" spans="1:17">
       <c r="A409">
         <v>3291670</v>
       </c>
@@ -22128,17 +22137,17 @@
       <c r="N409">
         <v>84</v>
       </c>
+      <c r="O409">
+        <v>1</v>
+      </c>
       <c r="P409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q409">
         <v>0</v>
       </c>
-      <c r="R409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:18">
+    </row>
+    <row r="410" spans="1:17">
       <c r="A410">
         <v>3293653</v>
       </c>
@@ -22181,17 +22190,17 @@
       <c r="N410">
         <v>84</v>
       </c>
+      <c r="O410">
+        <v>0</v>
+      </c>
       <c r="P410">
         <v>0</v>
       </c>
       <c r="Q410">
         <v>0</v>
       </c>
-      <c r="R410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:18">
+    </row>
+    <row r="411" spans="1:17">
       <c r="A411">
         <v>3297650</v>
       </c>
@@ -22234,17 +22243,17 @@
       <c r="N411">
         <v>69</v>
       </c>
+      <c r="O411">
+        <v>0</v>
+      </c>
       <c r="P411">
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>0</v>
-      </c>
-      <c r="R411">
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:18">
+    <row r="412" spans="1:17">
       <c r="A412">
         <v>3301660</v>
       </c>
@@ -22287,17 +22296,17 @@
       <c r="N412">
         <v>64</v>
       </c>
+      <c r="O412">
+        <v>1</v>
+      </c>
       <c r="P412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q412">
-        <v>0</v>
-      </c>
-      <c r="R412">
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:18">
+    <row r="413" spans="1:17">
       <c r="A413">
         <v>3311680</v>
       </c>
@@ -22340,17 +22349,17 @@
       <c r="N413">
         <v>86</v>
       </c>
+      <c r="O413">
+        <v>0</v>
+      </c>
       <c r="P413">
         <v>0</v>
       </c>
       <c r="Q413">
         <v>0</v>
       </c>
-      <c r="R413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:18">
+    </row>
+    <row r="414" spans="1:17">
       <c r="A414">
         <v>3313650</v>
       </c>
@@ -22393,17 +22402,17 @@
       <c r="N414">
         <v>56</v>
       </c>
+      <c r="O414">
+        <v>0</v>
+      </c>
       <c r="P414">
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>0</v>
-      </c>
-      <c r="R414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:17">
       <c r="A415">
         <v>3315650</v>
       </c>
@@ -22446,17 +22455,17 @@
       <c r="N415">
         <v>56</v>
       </c>
+      <c r="O415">
+        <v>0</v>
+      </c>
       <c r="P415">
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>0</v>
-      </c>
-      <c r="R415">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17">
       <c r="A416">
         <v>3317650</v>
       </c>
@@ -22499,17 +22508,17 @@
       <c r="N416">
         <v>61</v>
       </c>
+      <c r="O416">
+        <v>0</v>
+      </c>
       <c r="P416">
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>0</v>
-      </c>
-      <c r="R416">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:17">
       <c r="A417">
         <v>3319650</v>
       </c>
@@ -22552,17 +22561,17 @@
       <c r="N417">
         <v>72</v>
       </c>
+      <c r="O417">
+        <v>0</v>
+      </c>
       <c r="P417">
         <v>0</v>
       </c>
       <c r="Q417">
         <v>0</v>
       </c>
-      <c r="R417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:18">
+    </row>
+    <row r="418" spans="1:17">
       <c r="A418">
         <v>3321660</v>
       </c>
@@ -22605,14 +22614,14 @@
       <c r="N418">
         <v>53</v>
       </c>
+      <c r="P418">
+        <v>0</v>
+      </c>
       <c r="Q418">
-        <v>0</v>
-      </c>
-      <c r="R418">
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:18">
+    <row r="419" spans="1:17">
       <c r="A419">
         <v>3323670</v>
       </c>
@@ -22655,17 +22664,17 @@
       <c r="N419">
         <v>93</v>
       </c>
+      <c r="O419">
+        <v>0</v>
+      </c>
       <c r="P419">
         <v>0</v>
       </c>
       <c r="Q419">
         <v>0</v>
       </c>
-      <c r="R419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:18">
+    </row>
+    <row r="420" spans="1:17">
       <c r="A420">
         <v>3327650</v>
       </c>
@@ -22708,17 +22717,17 @@
       <c r="N420">
         <v>71</v>
       </c>
+      <c r="O420">
+        <v>0</v>
+      </c>
       <c r="P420">
         <v>0</v>
       </c>
       <c r="Q420">
         <v>0</v>
       </c>
-      <c r="R420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:18">
+    </row>
+    <row r="421" spans="1:17">
       <c r="A421">
         <v>3335650</v>
       </c>
@@ -22761,17 +22770,17 @@
       <c r="N421">
         <v>71</v>
       </c>
+      <c r="O421">
+        <v>0</v>
+      </c>
       <c r="P421">
         <v>0</v>
       </c>
       <c r="Q421">
         <v>0</v>
       </c>
-      <c r="R421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:18">
+    </row>
+    <row r="422" spans="1:17">
       <c r="A422">
         <v>3337650</v>
       </c>
@@ -22814,17 +22823,17 @@
       <c r="N422">
         <v>103</v>
       </c>
+      <c r="O422">
+        <v>1</v>
+      </c>
       <c r="P422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q422">
-        <v>0</v>
-      </c>
-      <c r="R422">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17">
       <c r="A423">
         <v>3339680</v>
       </c>
@@ -22867,17 +22876,17 @@
       <c r="N423">
         <v>97</v>
       </c>
+      <c r="O423">
+        <v>0</v>
+      </c>
       <c r="P423">
         <v>0</v>
       </c>
       <c r="Q423">
         <v>0</v>
       </c>
-      <c r="R423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:18">
+    </row>
+    <row r="424" spans="1:17">
       <c r="A424">
         <v>3341680</v>
       </c>
@@ -22920,17 +22929,17 @@
       <c r="N424">
         <v>68</v>
       </c>
+      <c r="O424">
+        <v>0</v>
+      </c>
       <c r="P424">
         <v>0</v>
       </c>
       <c r="Q424">
         <v>0</v>
       </c>
-      <c r="R424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:18">
+    </row>
+    <row r="425" spans="1:17">
       <c r="A425">
         <v>3343650</v>
       </c>
@@ -22973,17 +22982,17 @@
       <c r="N425">
         <v>72</v>
       </c>
+      <c r="O425">
+        <v>0</v>
+      </c>
       <c r="P425">
         <v>0</v>
       </c>
       <c r="Q425">
         <v>0</v>
       </c>
-      <c r="R425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:18">
+    </row>
+    <row r="426" spans="1:17">
       <c r="A426">
         <v>3345650</v>
       </c>
@@ -23026,17 +23035,17 @@
       <c r="N426">
         <v>86</v>
       </c>
+      <c r="O426">
+        <v>1</v>
+      </c>
       <c r="P426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q426">
         <v>0</v>
       </c>
-      <c r="R426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:18">
+    </row>
+    <row r="427" spans="1:17">
       <c r="A427">
         <v>3347653</v>
       </c>
@@ -23079,17 +23088,17 @@
       <c r="N427">
         <v>76</v>
       </c>
+      <c r="O427">
+        <v>0</v>
+      </c>
       <c r="P427">
         <v>0</v>
       </c>
       <c r="Q427">
         <v>0</v>
       </c>
-      <c r="R427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:18">
+    </row>
+    <row r="428" spans="1:17">
       <c r="A428">
         <v>3357650</v>
       </c>
@@ -23132,17 +23141,17 @@
       <c r="N428">
         <v>65</v>
       </c>
+      <c r="O428">
+        <v>0</v>
+      </c>
       <c r="P428">
         <v>0</v>
       </c>
       <c r="Q428">
         <v>0</v>
       </c>
-      <c r="R428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:18">
+    </row>
+    <row r="429" spans="1:17">
       <c r="A429">
         <v>3361650</v>
       </c>
@@ -23185,17 +23194,17 @@
       <c r="N429">
         <v>80</v>
       </c>
+      <c r="O429">
+        <v>0</v>
+      </c>
       <c r="P429">
         <v>0</v>
       </c>
       <c r="Q429">
         <v>0</v>
       </c>
-      <c r="R429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:18">
+    </row>
+    <row r="430" spans="1:17">
       <c r="A430">
         <v>3363660</v>
       </c>
@@ -23238,17 +23247,17 @@
       <c r="N430">
         <v>91</v>
       </c>
+      <c r="O430">
+        <v>1</v>
+      </c>
       <c r="P430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q430">
         <v>0</v>
       </c>
-      <c r="R430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:18">
+    </row>
+    <row r="431" spans="1:17">
       <c r="A431">
         <v>3365650</v>
       </c>
@@ -23291,17 +23300,17 @@
       <c r="N431">
         <v>104</v>
       </c>
+      <c r="O431">
+        <v>0</v>
+      </c>
       <c r="P431">
         <v>0</v>
       </c>
       <c r="Q431">
         <v>0</v>
       </c>
-      <c r="R431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:18">
+    </row>
+    <row r="432" spans="1:17">
       <c r="A432">
         <v>3367653</v>
       </c>
@@ -23344,17 +23353,17 @@
       <c r="N432">
         <v>59</v>
       </c>
+      <c r="O432">
+        <v>0</v>
+      </c>
       <c r="P432">
         <v>0</v>
       </c>
       <c r="Q432">
         <v>0</v>
       </c>
-      <c r="R432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:18">
+    </row>
+    <row r="433" spans="1:17">
       <c r="A433">
         <v>3371650</v>
       </c>
@@ -23397,17 +23406,17 @@
       <c r="N433">
         <v>57</v>
       </c>
+      <c r="O433">
+        <v>1</v>
+      </c>
       <c r="P433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q433">
         <v>0</v>
       </c>
-      <c r="R433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:18">
+    </row>
+    <row r="434" spans="1:17">
       <c r="A434">
         <v>3373660</v>
       </c>
@@ -23450,17 +23459,17 @@
       <c r="N434">
         <v>83</v>
       </c>
+      <c r="O434">
+        <v>0</v>
+      </c>
       <c r="P434">
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>0</v>
-      </c>
-      <c r="R434">
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:18">
+    <row r="435" spans="1:17">
       <c r="A435">
         <v>3375670</v>
       </c>
@@ -23503,17 +23512,17 @@
       <c r="N435">
         <v>72</v>
       </c>
+      <c r="O435">
+        <v>0</v>
+      </c>
       <c r="P435">
         <v>0</v>
       </c>
       <c r="Q435">
         <v>0</v>
       </c>
-      <c r="R435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:18">
+    </row>
+    <row r="436" spans="1:17">
       <c r="A436">
         <v>3377650</v>
       </c>
@@ -23556,17 +23565,17 @@
       <c r="N436">
         <v>81</v>
       </c>
+      <c r="O436">
+        <v>1</v>
+      </c>
       <c r="P436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q436">
         <v>0</v>
       </c>
-      <c r="R436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:18">
+    </row>
+    <row r="437" spans="1:17">
       <c r="A437">
         <v>3381650</v>
       </c>
@@ -23609,17 +23618,17 @@
       <c r="N437">
         <v>106</v>
       </c>
+      <c r="O437">
+        <v>0</v>
+      </c>
       <c r="P437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q437">
-        <v>1</v>
-      </c>
-      <c r="R437">
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:18">
+    <row r="438" spans="1:17">
       <c r="A438">
         <v>3385670</v>
       </c>
@@ -23662,17 +23671,17 @@
       <c r="N438">
         <v>88</v>
       </c>
+      <c r="O438">
+        <v>0</v>
+      </c>
       <c r="P438">
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>0</v>
-      </c>
-      <c r="R438">
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:18">
+    <row r="439" spans="1:17">
       <c r="A439">
         <v>3387660</v>
       </c>
@@ -23715,17 +23724,17 @@
       <c r="N439">
         <v>88</v>
       </c>
+      <c r="O439">
+        <v>0</v>
+      </c>
       <c r="P439">
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>0</v>
-      </c>
-      <c r="R439">
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:18">
+    <row r="440" spans="1:17">
       <c r="A440">
         <v>3389690</v>
       </c>
@@ -23768,17 +23777,17 @@
       <c r="N440">
         <v>79</v>
       </c>
+      <c r="O440">
+        <v>1</v>
+      </c>
       <c r="P440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q440">
-        <v>0</v>
-      </c>
-      <c r="R440">
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:18">
+    <row r="441" spans="1:17">
       <c r="A441">
         <v>3391652</v>
       </c>
@@ -23821,17 +23830,17 @@
       <c r="N441">
         <v>97</v>
       </c>
+      <c r="O441">
+        <v>0</v>
+      </c>
       <c r="P441">
         <v>0</v>
       </c>
       <c r="Q441">
         <v>0</v>
       </c>
-      <c r="R441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:18">
+    </row>
+    <row r="442" spans="1:17">
       <c r="A442">
         <v>3399653</v>
       </c>
@@ -23874,17 +23883,17 @@
       <c r="N442">
         <v>83</v>
       </c>
+      <c r="O442">
+        <v>0</v>
+      </c>
       <c r="P442">
         <v>0</v>
       </c>
       <c r="Q442">
         <v>0</v>
       </c>
-      <c r="R442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:18">
+    </row>
+    <row r="443" spans="1:17">
       <c r="A443">
         <v>3401650</v>
       </c>
@@ -23927,17 +23936,17 @@
       <c r="N443">
         <v>68</v>
       </c>
+      <c r="O443">
+        <v>0</v>
+      </c>
       <c r="P443">
         <v>0</v>
       </c>
       <c r="Q443">
         <v>0</v>
       </c>
-      <c r="R443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:18">
+    </row>
+    <row r="444" spans="1:17">
       <c r="A444">
         <v>3403653</v>
       </c>
@@ -23980,17 +23989,17 @@
       <c r="N444">
         <v>61</v>
       </c>
+      <c r="O444">
+        <v>0</v>
+      </c>
       <c r="P444">
         <v>0</v>
       </c>
       <c r="Q444">
         <v>0</v>
       </c>
-      <c r="R444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:18">
+    </row>
+    <row r="445" spans="1:17">
       <c r="A445">
         <v>3405653</v>
       </c>
@@ -24033,17 +24042,17 @@
       <c r="N445">
         <v>82</v>
       </c>
+      <c r="O445">
+        <v>0</v>
+      </c>
       <c r="P445">
         <v>0</v>
       </c>
       <c r="Q445">
         <v>0</v>
       </c>
-      <c r="R445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:18">
+    </row>
+    <row r="446" spans="1:17">
       <c r="A446">
         <v>3407653</v>
       </c>
@@ -24086,17 +24095,17 @@
       <c r="N446">
         <v>90</v>
       </c>
+      <c r="O446">
+        <v>0</v>
+      </c>
       <c r="P446">
         <v>0</v>
       </c>
       <c r="Q446">
         <v>0</v>
       </c>
-      <c r="R446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:18">
+    </row>
+    <row r="447" spans="1:17">
       <c r="A447">
         <v>3409650</v>
       </c>
@@ -24139,17 +24148,17 @@
       <c r="N447">
         <v>68</v>
       </c>
+      <c r="O447">
+        <v>0</v>
+      </c>
       <c r="P447">
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>0</v>
-      </c>
-      <c r="R447">
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:18">
+    <row r="448" spans="1:17">
       <c r="A448">
         <v>3411650</v>
       </c>
@@ -24192,17 +24201,17 @@
       <c r="N448">
         <v>64</v>
       </c>
+      <c r="O448">
+        <v>0</v>
+      </c>
       <c r="P448">
         <v>0</v>
       </c>
       <c r="Q448">
         <v>0</v>
       </c>
-      <c r="R448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:18">
+    </row>
+    <row r="449" spans="1:17">
       <c r="A449">
         <v>3415660</v>
       </c>
@@ -24245,17 +24254,17 @@
       <c r="N449">
         <v>71</v>
       </c>
+      <c r="O449">
+        <v>0</v>
+      </c>
       <c r="P449">
         <v>0</v>
       </c>
       <c r="Q449">
         <v>0</v>
       </c>
-      <c r="R449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:18">
+    </row>
+    <row r="450" spans="1:17">
       <c r="A450">
         <v>3417653</v>
       </c>
@@ -24298,17 +24307,17 @@
       <c r="N450">
         <v>72</v>
       </c>
+      <c r="O450">
+        <v>0</v>
+      </c>
       <c r="P450">
         <v>0</v>
       </c>
       <c r="Q450">
         <v>0</v>
       </c>
-      <c r="R450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:18">
+    </row>
+    <row r="451" spans="1:17">
       <c r="A451">
         <v>3419660</v>
       </c>
@@ -24351,17 +24360,17 @@
       <c r="N451">
         <v>83</v>
       </c>
+      <c r="O451">
+        <v>0</v>
+      </c>
       <c r="P451">
         <v>0</v>
       </c>
       <c r="Q451">
         <v>0</v>
       </c>
-      <c r="R451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:18">
+    </row>
+    <row r="452" spans="1:17">
       <c r="A452">
         <v>3421653</v>
       </c>
@@ -24404,17 +24413,17 @@
       <c r="N452">
         <v>46</v>
       </c>
+      <c r="O452">
+        <v>0</v>
+      </c>
       <c r="P452">
         <v>0</v>
       </c>
       <c r="Q452">
         <v>0</v>
       </c>
-      <c r="R452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:18">
+    </row>
+    <row r="453" spans="1:17">
       <c r="A453">
         <v>3427670</v>
       </c>
@@ -24457,17 +24466,17 @@
       <c r="N453">
         <v>106</v>
       </c>
+      <c r="O453">
+        <v>0</v>
+      </c>
       <c r="P453">
         <v>0</v>
       </c>
       <c r="Q453">
         <v>0</v>
       </c>
-      <c r="R453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:18">
+    </row>
+    <row r="454" spans="1:17">
       <c r="A454">
         <v>3429653</v>
       </c>
@@ -24510,17 +24519,17 @@
       <c r="N454">
         <v>102</v>
       </c>
+      <c r="O454">
+        <v>0</v>
+      </c>
       <c r="P454">
         <v>0</v>
       </c>
       <c r="Q454">
         <v>0</v>
       </c>
-      <c r="R454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:18">
+    </row>
+    <row r="455" spans="1:17">
       <c r="A455">
         <v>3431650</v>
       </c>
@@ -24563,17 +24572,17 @@
       <c r="N455">
         <v>87</v>
       </c>
+      <c r="O455">
+        <v>0</v>
+      </c>
       <c r="P455">
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>0</v>
-      </c>
-      <c r="R455">
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:18">
+    <row r="456" spans="1:17">
       <c r="A456">
         <v>3433650</v>
       </c>
@@ -24616,17 +24625,17 @@
       <c r="N456">
         <v>70</v>
       </c>
+      <c r="O456">
+        <v>1</v>
+      </c>
       <c r="P456">
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>1</v>
-      </c>
-      <c r="R456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:17">
       <c r="A457">
         <v>3435690</v>
       </c>
@@ -24669,17 +24678,17 @@
       <c r="N457">
         <v>58</v>
       </c>
+      <c r="O457">
+        <v>0</v>
+      </c>
       <c r="P457">
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>0</v>
-      </c>
-      <c r="R457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:17">
       <c r="A458">
         <v>3437650</v>
       </c>
@@ -24722,17 +24731,17 @@
       <c r="N458">
         <v>113</v>
       </c>
+      <c r="O458">
+        <v>0</v>
+      </c>
       <c r="P458">
         <v>0</v>
       </c>
       <c r="Q458">
         <v>0</v>
       </c>
-      <c r="R458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:18">
+    </row>
+    <row r="459" spans="1:17">
       <c r="A459">
         <v>3439680</v>
       </c>
@@ -24775,17 +24784,17 @@
       <c r="N459">
         <v>59</v>
       </c>
+      <c r="O459">
+        <v>0</v>
+      </c>
       <c r="P459">
         <v>0</v>
       </c>
       <c r="Q459">
         <v>0</v>
       </c>
-      <c r="R459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:18">
+    </row>
+    <row r="460" spans="1:17">
       <c r="A460">
         <v>3441650</v>
       </c>
@@ -24828,17 +24837,17 @@
       <c r="N460">
         <v>61</v>
       </c>
+      <c r="O460">
+        <v>0</v>
+      </c>
       <c r="P460">
         <v>0</v>
       </c>
       <c r="Q460">
         <v>0</v>
       </c>
-      <c r="R460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:18">
+    </row>
+    <row r="461" spans="1:17">
       <c r="A461">
         <v>3443650</v>
       </c>
@@ -24881,17 +24890,17 @@
       <c r="N461">
         <v>87</v>
       </c>
+      <c r="O461">
+        <v>0</v>
+      </c>
       <c r="P461">
         <v>0</v>
       </c>
       <c r="Q461">
         <v>0</v>
       </c>
-      <c r="R461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:18">
+    </row>
+    <row r="462" spans="1:17">
       <c r="A462">
         <v>3445670</v>
       </c>
@@ -24934,17 +24943,17 @@
       <c r="N462">
         <v>81</v>
       </c>
+      <c r="O462">
+        <v>0</v>
+      </c>
       <c r="P462">
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>0</v>
-      </c>
-      <c r="R462">
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:18">
+    <row r="463" spans="1:17">
       <c r="A463">
         <v>3447650</v>
       </c>
@@ -24987,17 +24996,17 @@
       <c r="N463">
         <v>88</v>
       </c>
+      <c r="O463">
+        <v>0</v>
+      </c>
       <c r="P463">
         <v>0</v>
       </c>
       <c r="Q463">
         <v>0</v>
       </c>
-      <c r="R463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:18">
+    </row>
+    <row r="464" spans="1:17">
       <c r="A464">
         <v>3453650</v>
       </c>
@@ -25040,17 +25049,17 @@
       <c r="N464">
         <v>104</v>
       </c>
+      <c r="O464">
+        <v>0</v>
+      </c>
       <c r="P464">
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>0</v>
-      </c>
-      <c r="R464">
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:18">
+    <row r="465" spans="1:17">
       <c r="A465">
         <v>3455650</v>
       </c>
@@ -25093,17 +25102,17 @@
       <c r="N465">
         <v>106</v>
       </c>
+      <c r="O465">
+        <v>0</v>
+      </c>
       <c r="P465">
         <v>0</v>
       </c>
       <c r="Q465">
         <v>0</v>
       </c>
-      <c r="R465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:18">
+    </row>
+    <row r="466" spans="1:17">
       <c r="A466">
         <v>3477660</v>
       </c>
@@ -25146,17 +25155,17 @@
       <c r="N466">
         <v>78</v>
       </c>
+      <c r="O466">
+        <v>0</v>
+      </c>
       <c r="P466">
         <v>0</v>
       </c>
       <c r="Q466">
         <v>0</v>
       </c>
-      <c r="R466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:18">
+    </row>
+    <row r="467" spans="1:17">
       <c r="A467">
         <v>3481660</v>
       </c>
@@ -25199,17 +25208,17 @@
       <c r="N467">
         <v>90</v>
       </c>
+      <c r="O467">
+        <v>0</v>
+      </c>
       <c r="P467">
         <v>0</v>
       </c>
       <c r="Q467">
         <v>0</v>
       </c>
-      <c r="R467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:18">
+    </row>
+    <row r="468" spans="1:17">
       <c r="A468">
         <v>3483651</v>
       </c>
@@ -25252,17 +25261,17 @@
       <c r="N468">
         <v>59</v>
       </c>
+      <c r="O468">
+        <v>0</v>
+      </c>
       <c r="P468">
         <v>0</v>
       </c>
       <c r="Q468">
         <v>0</v>
       </c>
-      <c r="R468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:18">
+    </row>
+    <row r="469" spans="1:17">
       <c r="A469">
         <v>3485680</v>
       </c>
@@ -25305,17 +25314,17 @@
       <c r="N469">
         <v>78</v>
       </c>
+      <c r="O469">
+        <v>0</v>
+      </c>
       <c r="P469">
         <v>0</v>
       </c>
       <c r="Q469">
         <v>0</v>
       </c>
-      <c r="R469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:18">
+    </row>
+    <row r="470" spans="1:17">
       <c r="A470">
         <v>3487650</v>
       </c>
@@ -25358,17 +25367,17 @@
       <c r="N470">
         <v>95</v>
       </c>
+      <c r="O470">
+        <v>0</v>
+      </c>
       <c r="P470">
         <v>0</v>
       </c>
       <c r="Q470">
         <v>0</v>
       </c>
-      <c r="R470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:18">
+    </row>
+    <row r="471" spans="1:17">
       <c r="A471">
         <v>3489670</v>
       </c>
@@ -25411,17 +25420,17 @@
       <c r="N471">
         <v>95</v>
       </c>
+      <c r="O471">
+        <v>0</v>
+      </c>
       <c r="P471">
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>0</v>
-      </c>
-      <c r="R471">
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:18">
+    <row r="472" spans="1:17">
       <c r="A472">
         <v>3491650</v>
       </c>
@@ -25464,17 +25473,17 @@
       <c r="N472">
         <v>67</v>
       </c>
+      <c r="O472">
+        <v>0</v>
+      </c>
       <c r="P472">
         <v>0</v>
       </c>
       <c r="Q472">
         <v>0</v>
       </c>
-      <c r="R472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:18">
+    </row>
+    <row r="473" spans="1:17">
       <c r="A473">
         <v>3495650</v>
       </c>
@@ -25517,17 +25526,17 @@
       <c r="N473">
         <v>66</v>
       </c>
+      <c r="O473">
+        <v>0</v>
+      </c>
       <c r="P473">
         <v>0</v>
       </c>
       <c r="Q473">
         <v>0</v>
       </c>
-      <c r="R473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:18">
+    </row>
+    <row r="474" spans="1:17">
       <c r="A474">
         <v>3497650</v>
       </c>
@@ -25570,17 +25579,17 @@
       <c r="N474">
         <v>86</v>
       </c>
+      <c r="O474">
+        <v>1</v>
+      </c>
       <c r="P474">
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>1</v>
-      </c>
-      <c r="R474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17">
       <c r="A475">
         <v>3499660</v>
       </c>
@@ -25623,17 +25632,17 @@
       <c r="N475">
         <v>56</v>
       </c>
+      <c r="O475">
+        <v>1</v>
+      </c>
       <c r="P475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q475">
         <v>0</v>
       </c>
-      <c r="R475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:18">
+    </row>
+    <row r="476" spans="1:17">
       <c r="A476">
         <v>3501650</v>
       </c>
@@ -25676,17 +25685,17 @@
       <c r="N476">
         <v>81</v>
       </c>
+      <c r="O476">
+        <v>0</v>
+      </c>
       <c r="P476">
         <v>0</v>
       </c>
       <c r="Q476">
         <v>0</v>
       </c>
-      <c r="R476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:18">
+    </row>
+    <row r="477" spans="1:17">
       <c r="A477">
         <v>3503650</v>
       </c>
@@ -25729,17 +25738,17 @@
       <c r="N477">
         <v>78</v>
       </c>
+      <c r="O477">
+        <v>0</v>
+      </c>
       <c r="P477">
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>0</v>
-      </c>
-      <c r="R477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:17">
       <c r="A478">
         <v>3509661</v>
       </c>
@@ -25782,17 +25791,17 @@
       <c r="N478">
         <v>79</v>
       </c>
+      <c r="O478">
+        <v>0</v>
+      </c>
       <c r="P478">
         <v>0</v>
       </c>
       <c r="Q478">
         <v>0</v>
       </c>
-      <c r="R478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:18">
+    </row>
+    <row r="479" spans="1:17">
       <c r="A479">
         <v>3511650</v>
       </c>
@@ -25835,17 +25844,17 @@
       <c r="N479">
         <v>52</v>
       </c>
+      <c r="O479">
+        <v>0</v>
+      </c>
       <c r="P479">
         <v>0</v>
       </c>
       <c r="Q479">
         <v>0</v>
       </c>
-      <c r="R479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:18">
+    </row>
+    <row r="480" spans="1:17">
       <c r="A480">
         <v>3515660</v>
       </c>
@@ -25888,17 +25897,17 @@
       <c r="N480">
         <v>88</v>
       </c>
+      <c r="O480">
+        <v>0</v>
+      </c>
       <c r="P480">
         <v>0</v>
       </c>
       <c r="Q480">
         <v>0</v>
       </c>
-      <c r="R480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:18">
+    </row>
+    <row r="481" spans="1:17">
       <c r="A481">
         <v>3517653</v>
       </c>
@@ -25941,17 +25950,17 @@
       <c r="N481">
         <v>68</v>
       </c>
+      <c r="O481">
+        <v>0</v>
+      </c>
       <c r="P481">
         <v>0</v>
       </c>
       <c r="Q481">
         <v>0</v>
       </c>
-      <c r="R481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:18">
+    </row>
+    <row r="482" spans="1:17">
       <c r="A482">
         <v>3519670</v>
       </c>
@@ -25994,17 +26003,17 @@
       <c r="N482">
         <v>99</v>
       </c>
+      <c r="O482">
+        <v>0</v>
+      </c>
       <c r="P482">
         <v>0</v>
       </c>
       <c r="Q482">
         <v>0</v>
       </c>
-      <c r="R482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:18">
+    </row>
+    <row r="483" spans="1:17">
       <c r="A483">
         <v>3523650</v>
       </c>
@@ -26047,17 +26056,17 @@
       <c r="N483">
         <v>66</v>
       </c>
+      <c r="O483">
+        <v>1</v>
+      </c>
       <c r="P483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q483">
         <v>0</v>
       </c>
-      <c r="R483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:18">
+    </row>
+    <row r="484" spans="1:17">
       <c r="A484">
         <v>3525650</v>
       </c>
@@ -26100,17 +26109,17 @@
       <c r="N484">
         <v>70</v>
       </c>
+      <c r="O484">
+        <v>1</v>
+      </c>
       <c r="P484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q484">
         <v>0</v>
       </c>
-      <c r="R484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:18">
+    </row>
+    <row r="485" spans="1:17">
       <c r="A485">
         <v>3527670</v>
       </c>
@@ -26153,17 +26162,17 @@
       <c r="N485">
         <v>103</v>
       </c>
+      <c r="O485">
+        <v>1</v>
+      </c>
       <c r="P485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q485">
         <v>0</v>
       </c>
-      <c r="R485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:18">
+    </row>
+    <row r="486" spans="1:17">
       <c r="A486">
         <v>3529653</v>
       </c>
@@ -26206,17 +26215,17 @@
       <c r="N486">
         <v>72</v>
       </c>
+      <c r="O486">
+        <v>0</v>
+      </c>
       <c r="P486">
         <v>0</v>
       </c>
       <c r="Q486">
         <v>0</v>
       </c>
-      <c r="R486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:18">
+    </row>
+    <row r="487" spans="1:17">
       <c r="A487">
         <v>3531650</v>
       </c>
@@ -26259,17 +26268,17 @@
       <c r="N487">
         <v>86</v>
       </c>
+      <c r="O487">
+        <v>0</v>
+      </c>
       <c r="P487">
         <v>0</v>
       </c>
       <c r="Q487">
         <v>0</v>
       </c>
-      <c r="R487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:18">
+    </row>
+    <row r="488" spans="1:17">
       <c r="A488">
         <v>3535650</v>
       </c>
@@ -26312,17 +26321,17 @@
       <c r="N488">
         <v>93</v>
       </c>
+      <c r="O488">
+        <v>1</v>
+      </c>
       <c r="P488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q488">
         <v>0</v>
       </c>
-      <c r="R488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:18">
+    </row>
+    <row r="489" spans="1:17">
       <c r="A489">
         <v>3537650</v>
       </c>
@@ -26365,17 +26374,17 @@
       <c r="N489">
         <v>69</v>
       </c>
+      <c r="O489">
+        <v>0</v>
+      </c>
       <c r="P489">
         <v>0</v>
       </c>
       <c r="Q489">
         <v>0</v>
       </c>
-      <c r="R489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:18">
+    </row>
+    <row r="490" spans="1:17">
       <c r="A490">
         <v>3551650</v>
       </c>
@@ -26418,17 +26427,17 @@
       <c r="N490">
         <v>83</v>
       </c>
+      <c r="O490">
+        <v>1</v>
+      </c>
       <c r="P490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q490">
         <v>0</v>
       </c>
-      <c r="R490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:18">
+    </row>
+    <row r="491" spans="1:17">
       <c r="A491">
         <v>3561650</v>
       </c>
@@ -26471,13 +26480,13 @@
       <c r="N491">
         <v>71</v>
       </c>
+      <c r="O491">
+        <v>0</v>
+      </c>
       <c r="P491">
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>0</v>
-      </c>
-      <c r="R491">
         <v>0</v>
       </c>
     </row>
